--- a/maps/NC/NC20C_candidates.xlsx
+++ b/maps/NC/NC20C_candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C3462D-7B42-174A-8103-99FBF037BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802E037-9D20-2848-980F-6C69C474FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -436,7 +436,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -533,9 +533,9 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -864,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BB18C9-DF91-0443-81E7-3680003DA07F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1078,11 +1078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1092,8 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1111,10 +1112,10 @@
       <c r="E1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1140,10 +1141,10 @@
       <c r="E2" s="21">
         <v>8.8100000000000001E-3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="21">
         <v>0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="21">
         <v>1</v>
       </c>
       <c r="H2" s="7">
@@ -1169,10 +1170,10 @@
       <c r="E3" s="22">
         <v>1.396E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="22">
         <v>5.3200000000000003E-4</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="22">
         <v>0.97811999999999999</v>
       </c>
       <c r="H3" s="9">
@@ -1198,10 +1199,10 @@
       <c r="E4" s="22">
         <v>1.025E-2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="22">
         <v>1.3630000000000001E-3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="22">
         <v>0.96819999999999995</v>
       </c>
       <c r="H4" s="9">
@@ -1227,10 +1228,10 @@
       <c r="E5" s="22">
         <v>1.67E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="22">
         <v>2.3010000000000001E-3</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="22">
         <v>0.95255999999999996</v>
       </c>
       <c r="H5" s="9">
@@ -1256,10 +1257,10 @@
       <c r="E6" s="22">
         <v>2.351E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="22">
         <v>3.3149999999999998E-3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="22">
         <v>0.93831100000000001</v>
       </c>
       <c r="H6" s="9">
@@ -1285,10 +1286,10 @@
       <c r="E7" s="22">
         <v>1.175E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="22">
         <v>3.4099999999999998E-3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="22">
         <v>0.94458600000000004</v>
       </c>
       <c r="H7" s="9">
@@ -1314,10 +1315,10 @@
       <c r="E8" s="22">
         <v>8.5699999999999995E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="22">
         <v>3.545E-3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="22">
         <v>0.94657500000000006</v>
       </c>
       <c r="H8" s="9">
@@ -1343,10 +1344,10 @@
       <c r="E9" s="22">
         <v>2.8920000000000001E-2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="22">
         <v>3.722E-3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="22">
         <v>0.93042100000000005</v>
       </c>
       <c r="H9" s="9">
@@ -1372,10 +1373,10 @@
       <c r="E10" s="22">
         <v>1.1979999999999999E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="22">
         <v>4.0249999999999999E-3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="22">
         <v>0.93839600000000001</v>
       </c>
       <c r="H10" s="9">
@@ -1401,10 +1402,10 @@
       <c r="E11" s="22">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="22">
         <v>4.1910000000000003E-3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="22">
         <v>0.93675699999999995</v>
       </c>
       <c r="H11" s="9">
@@ -1430,10 +1431,10 @@
       <c r="E12" s="22">
         <v>1.78E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="22">
         <v>4.4580000000000002E-3</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="22">
         <v>0.94244600000000001</v>
       </c>
       <c r="H12" s="9">
@@ -1459,10 +1460,10 @@
       <c r="E13" s="22">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="22">
         <v>4.4679999999999997E-3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="22">
         <v>0.94257599999999997</v>
       </c>
       <c r="H13" s="9">
@@ -1488,10 +1489,10 @@
       <c r="E14" s="22">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="22">
         <v>4.4809999999999997E-3</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="22">
         <v>0.94396100000000005</v>
       </c>
       <c r="H14" s="9">
@@ -1517,10 +1518,10 @@
       <c r="E15" s="22">
         <v>1.0460000000000001E-2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="22">
         <v>4.5459999999999997E-3</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="22">
         <v>0.95537499999999997</v>
       </c>
       <c r="H15" s="9">
@@ -1546,10 +1547,10 @@
       <c r="E16" s="22">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="22">
         <v>4.8170000000000001E-3</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="22">
         <v>0.93782799999999999</v>
       </c>
       <c r="H16" s="9">
@@ -1575,10 +1576,10 @@
       <c r="E17" s="22">
         <v>2.495E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="22">
         <v>4.8240000000000002E-3</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="22">
         <v>0.94415899999999997</v>
       </c>
       <c r="H17" s="9">
@@ -1604,10 +1605,10 @@
       <c r="E18" s="22">
         <v>1.491E-2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="22">
         <v>4.9540000000000001E-3</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="22">
         <v>0.923566</v>
       </c>
       <c r="H18" s="9">
@@ -1633,10 +1634,10 @@
       <c r="E19" s="22">
         <v>1.6639999999999999E-2</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="22">
         <v>5.2950000000000002E-3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="22">
         <v>0.94330999999999998</v>
       </c>
       <c r="H19" s="9">
@@ -1662,10 +1663,10 @@
       <c r="E20" s="22">
         <v>1.261E-2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="22">
         <v>5.3070000000000001E-3</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="22">
         <v>0.96804900000000005</v>
       </c>
       <c r="H20" s="9">
@@ -1691,10 +1692,10 @@
       <c r="E21" s="22">
         <v>1.1220000000000001E-2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="22">
         <v>5.3689999999999996E-3</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="22">
         <v>0.97088799999999997</v>
       </c>
       <c r="H21" s="9">
@@ -1720,10 +1721,10 @@
       <c r="E22" s="22">
         <v>6.8399999999999997E-3</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="22">
         <v>5.4270000000000004E-3</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="22">
         <v>0.96863900000000003</v>
       </c>
       <c r="H22" s="9">
@@ -1749,10 +1750,10 @@
       <c r="E23" s="22">
         <v>3.483E-2</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="22">
         <v>5.8469999999999998E-3</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="22">
         <v>0.92564100000000005</v>
       </c>
       <c r="H23" s="9">
@@ -1778,10 +1779,10 @@
       <c r="E24" s="22">
         <v>1.3849999999999999E-2</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="22">
         <v>5.8760000000000001E-3</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="22">
         <v>0.96114699999999997</v>
       </c>
       <c r="H24" s="9">
@@ -1807,10 +1808,10 @@
       <c r="E25" s="22">
         <v>1.26E-2</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="22">
         <v>6.0480000000000004E-3</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="22">
         <v>0.91784299999999996</v>
       </c>
       <c r="H25" s="9">
@@ -1836,10 +1837,10 @@
       <c r="E26" s="22">
         <v>1.729E-2</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="22">
         <v>6.5389999999999997E-3</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="22">
         <v>0.93012499999999998</v>
       </c>
       <c r="H26" s="9">
@@ -1865,10 +1866,10 @@
       <c r="E27" s="22">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="22">
         <v>6.5960000000000003E-3</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="22">
         <v>0.94852400000000003</v>
       </c>
       <c r="H27" s="9">
@@ -1894,10 +1895,10 @@
       <c r="E28" s="22">
         <v>1.274E-2</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="22">
         <v>6.5960000000000003E-3</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="22">
         <v>0.94225599999999998</v>
       </c>
       <c r="H28" s="9">
@@ -1923,10 +1924,10 @@
       <c r="E29" s="22">
         <v>1.4489999999999999E-2</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="22">
         <v>6.8069999999999997E-3</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="22">
         <v>0.89441300000000001</v>
       </c>
       <c r="H29" s="9">
@@ -1952,10 +1953,10 @@
       <c r="E30" s="22">
         <v>2.8830000000000001E-2</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="22">
         <v>6.8190000000000004E-3</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="22">
         <v>0.93749700000000002</v>
       </c>
       <c r="H30" s="9">
@@ -1981,10 +1982,10 @@
       <c r="E31" s="22">
         <v>2.384E-2</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="22">
         <v>7.1609999999999998E-3</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="22">
         <v>0.937137</v>
       </c>
       <c r="H31" s="9">
@@ -2010,10 +2011,10 @@
       <c r="E32" s="22">
         <v>1.6740000000000001E-2</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="22">
         <v>7.1760000000000001E-3</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="22">
         <v>0.94865900000000003</v>
       </c>
       <c r="H32" s="9">
@@ -2039,10 +2040,10 @@
       <c r="E33" s="22">
         <v>1.061E-2</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="22">
         <v>7.2319999999999997E-3</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="22">
         <v>0.92965900000000001</v>
       </c>
       <c r="H33" s="9">
@@ -2068,10 +2069,10 @@
       <c r="E34" s="22">
         <v>1.1520000000000001E-2</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="22">
         <v>7.2839999999999997E-3</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="22">
         <v>0.92727099999999996</v>
       </c>
       <c r="H34" s="9">
@@ -2097,10 +2098,10 @@
       <c r="E35" s="22">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="22">
         <v>7.3660000000000002E-3</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="22">
         <v>0.94008899999999995</v>
       </c>
       <c r="H35" s="9">
@@ -2126,10 +2127,10 @@
       <c r="E36" s="22">
         <v>2.801E-2</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="22">
         <v>7.646E-3</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="22">
         <v>0.93523800000000001</v>
       </c>
       <c r="H36" s="9">
@@ -2155,10 +2156,10 @@
       <c r="E37" s="22">
         <v>2.2679999999999999E-2</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="22">
         <v>7.6559999999999996E-3</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="22">
         <v>0.94710000000000005</v>
       </c>
       <c r="H37" s="9">
@@ -2184,10 +2185,10 @@
       <c r="E38" s="22">
         <v>2.6429999999999999E-2</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="22">
         <v>7.744E-3</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="22">
         <v>0.92825100000000005</v>
       </c>
       <c r="H38" s="9">
@@ -2213,10 +2214,10 @@
       <c r="E39" s="22">
         <v>1.354E-2</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="22">
         <v>7.7510000000000001E-3</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="22">
         <v>0.93010199999999998</v>
       </c>
       <c r="H39" s="9">
@@ -2242,10 +2243,10 @@
       <c r="E40" s="22">
         <v>9.9699999999999997E-3</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="22">
         <v>7.8799999999999999E-3</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="22">
         <v>0.94558200000000003</v>
       </c>
       <c r="H40" s="9">
@@ -2271,10 +2272,10 @@
       <c r="E41" s="22">
         <v>1.031E-2</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="22">
         <v>8.1449999999999995E-3</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="22">
         <v>0.93179800000000002</v>
       </c>
       <c r="H41" s="9">
@@ -2300,10 +2301,10 @@
       <c r="E42" s="22">
         <v>1.372E-2</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="22">
         <v>8.2150000000000001E-3</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="22">
         <v>0.930724</v>
       </c>
       <c r="H42" s="9">
@@ -2329,10 +2330,10 @@
       <c r="E43" s="22">
         <v>1.553E-2</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="22">
         <v>8.378E-3</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="22">
         <v>0.91774599999999995</v>
       </c>
       <c r="H43" s="9">
@@ -2358,10 +2359,10 @@
       <c r="E44" s="22">
         <v>3.0269999999999998E-2</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="22">
         <v>8.574E-3</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="22">
         <v>0.90387399999999996</v>
       </c>
       <c r="H44" s="9">
@@ -2387,10 +2388,10 @@
       <c r="E45" s="22">
         <v>1.298E-2</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="22">
         <v>8.6660000000000001E-3</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="22">
         <v>0.92495799999999995</v>
       </c>
       <c r="H45" s="9">
@@ -2416,10 +2417,10 @@
       <c r="E46" s="22">
         <v>1.482E-2</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="22">
         <v>8.9470000000000001E-3</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="22">
         <v>0.91468700000000003</v>
       </c>
       <c r="H46" s="9">
@@ -2445,10 +2446,10 @@
       <c r="E47" s="22">
         <v>1.7919999999999998E-2</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="22">
         <v>8.9639999999999997E-3</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="22">
         <v>0.91658499999999998</v>
       </c>
       <c r="H47" s="9">
@@ -2474,10 +2475,10 @@
       <c r="E48" s="22">
         <v>1.251E-2</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="22">
         <v>9.0860000000000003E-3</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="22">
         <v>0.91593400000000003</v>
       </c>
       <c r="H48" s="9">
@@ -2503,10 +2504,10 @@
       <c r="E49" s="22">
         <v>1.388E-2</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="22">
         <v>9.4129999999999995E-3</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="22">
         <v>0.89490999999999998</v>
       </c>
       <c r="H49" s="9">
@@ -2532,10 +2533,10 @@
       <c r="E50" s="22">
         <v>2.2190000000000001E-2</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="22">
         <v>9.8580000000000004E-3</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="22">
         <v>0.92691500000000004</v>
       </c>
       <c r="H50" s="9">
@@ -2561,10 +2562,10 @@
       <c r="E51" s="22">
         <v>2.3619999999999999E-2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="22">
         <v>9.9729999999999992E-3</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="22">
         <v>0.87760700000000003</v>
       </c>
       <c r="H51" s="9">
@@ -2590,10 +2591,10 @@
       <c r="E52" s="22">
         <v>2.793E-2</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="22">
         <v>9.9869999999999994E-3</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="22">
         <v>0.90133099999999999</v>
       </c>
       <c r="H52" s="9">
@@ -2619,10 +2620,10 @@
       <c r="E53" s="22">
         <v>2.8320000000000001E-2</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="22">
         <v>1.0056000000000001E-2</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="22">
         <v>0.90514899999999998</v>
       </c>
       <c r="H53" s="9">
@@ -2648,10 +2649,10 @@
       <c r="E54" s="22">
         <v>9.6500000000000006E-3</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="22">
         <v>1.0495000000000001E-2</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="22">
         <v>0.92780499999999999</v>
       </c>
       <c r="H54" s="9">
@@ -2677,10 +2678,10 @@
       <c r="E55" s="22">
         <v>5.5590000000000001E-2</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="22">
         <v>1.1129E-2</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="22">
         <v>0.92200400000000005</v>
       </c>
       <c r="H55" s="9">
@@ -2706,10 +2707,10 @@
       <c r="E56" s="22">
         <v>2.8559999999999999E-2</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="22">
         <v>1.1167E-2</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="22">
         <v>0.93226900000000001</v>
       </c>
       <c r="H56" s="9">
@@ -2735,10 +2736,10 @@
       <c r="E57" s="22">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="22">
         <v>1.1168000000000001E-2</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="22">
         <v>0.905559</v>
       </c>
       <c r="H57" s="9">
@@ -2764,10 +2765,10 @@
       <c r="E58" s="22">
         <v>2.2239999999999999E-2</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="22">
         <v>1.1730000000000001E-2</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="22">
         <v>0.91728900000000002</v>
       </c>
       <c r="H58" s="9">
@@ -2793,10 +2794,10 @@
       <c r="E59" s="22">
         <v>1.9529999999999999E-2</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="22">
         <v>1.1894E-2</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="22">
         <v>0.91001799999999999</v>
       </c>
       <c r="H59" s="9">
@@ -2822,10 +2823,10 @@
       <c r="E60" s="22">
         <v>9.6699999999999998E-3</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="22">
         <v>1.264E-2</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="22">
         <v>0.90029000000000003</v>
       </c>
       <c r="H60" s="9">
@@ -2851,10 +2852,10 @@
       <c r="E61" s="22">
         <v>1.703E-2</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="22">
         <v>1.2803E-2</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="22">
         <v>0.930369</v>
       </c>
       <c r="H61" s="9">
@@ -2880,10 +2881,10 @@
       <c r="E62" s="22">
         <v>1.8120000000000001E-2</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="22">
         <v>1.3880999999999999E-2</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="22">
         <v>0.90825400000000001</v>
       </c>
       <c r="H62" s="9">
@@ -2909,10 +2910,10 @@
       <c r="E63" s="22">
         <v>1.319E-2</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="22">
         <v>1.3892E-2</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="22">
         <v>0.890015</v>
       </c>
       <c r="H63" s="9">
@@ -2938,10 +2939,10 @@
       <c r="E64" s="22">
         <v>1.396E-2</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="22">
         <v>1.4374E-2</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="22">
         <v>0.87969900000000001</v>
       </c>
       <c r="H64" s="9">
@@ -2967,10 +2968,10 @@
       <c r="E65" s="22">
         <v>1.728E-2</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="22">
         <v>1.4567999999999999E-2</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="22">
         <v>0.90390199999999998</v>
       </c>
       <c r="H65" s="9">
@@ -2996,10 +2997,10 @@
       <c r="E66" s="22">
         <v>2.351E-2</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="22">
         <v>1.4817E-2</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="22">
         <v>0.87052799999999997</v>
       </c>
       <c r="H66" s="9">
@@ -3025,10 +3026,10 @@
       <c r="E67" s="22">
         <v>1.8440000000000002E-2</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="22">
         <v>1.5783999999999999E-2</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="22">
         <v>0.88073800000000002</v>
       </c>
       <c r="H67" s="9">
@@ -3054,10 +3055,10 @@
       <c r="E68" s="22">
         <v>1.898E-2</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="22">
         <v>1.5889E-2</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="22">
         <v>0.88991100000000001</v>
       </c>
       <c r="H68" s="9">
@@ -3083,10 +3084,10 @@
       <c r="E69" s="22">
         <v>2.086E-2</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="22">
         <v>1.6015999999999999E-2</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="22">
         <v>0.89997700000000003</v>
       </c>
       <c r="H69" s="9">
@@ -3112,10 +3113,10 @@
       <c r="E70" s="22">
         <v>2.239E-2</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="22">
         <v>1.6752E-2</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="22">
         <v>0.86223300000000003</v>
       </c>
       <c r="H70" s="9">
@@ -3141,10 +3142,10 @@
       <c r="E71" s="22">
         <v>1.142E-2</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="22">
         <v>1.7736999999999999E-2</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="22">
         <v>0.85658999999999996</v>
       </c>
       <c r="H71" s="9">
@@ -3170,10 +3171,10 @@
       <c r="E72" s="22">
         <v>3.3259999999999998E-2</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="22">
         <v>1.8735000000000002E-2</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="22">
         <v>0.89032500000000003</v>
       </c>
       <c r="H72" s="9">
@@ -3199,10 +3200,10 @@
       <c r="E73" s="22">
         <v>1.052E-2</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="22">
         <v>1.9262999999999999E-2</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="22">
         <v>0.85869300000000004</v>
       </c>
       <c r="H73" s="9">
@@ -3228,10 +3229,10 @@
       <c r="E74" s="22">
         <v>1.094E-2</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="22">
         <v>2.0226000000000001E-2</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="22">
         <v>0.91929899999999998</v>
       </c>
       <c r="H74" s="9">
@@ -3257,10 +3258,10 @@
       <c r="E75" s="22">
         <v>9.3799999999999994E-3</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="22">
         <v>2.0371E-2</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="22">
         <v>0.88028700000000004</v>
       </c>
       <c r="H75" s="9">
@@ -3286,10 +3287,10 @@
       <c r="E76" s="22">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="22">
         <v>2.0434999999999998E-2</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="22">
         <v>0.87245600000000001</v>
       </c>
       <c r="H76" s="9">
@@ -3315,10 +3316,10 @@
       <c r="E77" s="22">
         <v>9.3399999999999993E-3</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="22">
         <v>2.1017000000000001E-2</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="22">
         <v>0.93907200000000002</v>
       </c>
       <c r="H77" s="9">
@@ -3344,10 +3345,10 @@
       <c r="E78" s="22">
         <v>2.036E-2</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="22">
         <v>2.2003999999999999E-2</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="22">
         <v>0.91638200000000003</v>
       </c>
       <c r="H78" s="9">
@@ -3373,10 +3374,10 @@
       <c r="E79" s="22">
         <v>1.1939999999999999E-2</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="22">
         <v>2.2338E-2</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="22">
         <v>0.88936599999999999</v>
       </c>
       <c r="H79" s="9">
@@ -3402,10 +3403,10 @@
       <c r="E80" s="22">
         <v>2.845E-2</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="22">
         <v>2.2905999999999999E-2</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="22">
         <v>0.86248899999999995</v>
       </c>
       <c r="H80" s="9">
@@ -3431,10 +3432,10 @@
       <c r="E81" s="22">
         <v>1.349E-2</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="22">
         <v>2.4003E-2</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="22">
         <v>0.81636500000000001</v>
       </c>
       <c r="H81" s="9">
@@ -3460,10 +3461,10 @@
       <c r="E82" s="22">
         <v>8.1899999999999994E-3</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="22">
         <v>2.4181999999999999E-2</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="22">
         <v>0.83023100000000005</v>
       </c>
       <c r="H82" s="9">
@@ -3489,10 +3490,10 @@
       <c r="E83" s="22">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="22">
         <v>2.7042E-2</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="22">
         <v>0.87856000000000001</v>
       </c>
       <c r="H83" s="9">
@@ -3518,10 +3519,10 @@
       <c r="E84" s="22">
         <v>1.0290000000000001E-2</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="22">
         <v>2.7403E-2</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="22">
         <v>0.76261299999999999</v>
       </c>
       <c r="H84" s="9">
@@ -3547,10 +3548,10 @@
       <c r="E85" s="22">
         <v>8.7899999999999992E-3</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="22">
         <v>2.7532999999999998E-2</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="22">
         <v>0.926597</v>
       </c>
       <c r="H85" s="9">
@@ -3576,10 +3577,10 @@
       <c r="E86" s="22">
         <v>2.036E-2</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="22">
         <v>2.9175E-2</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="22">
         <v>0.83892299999999997</v>
       </c>
       <c r="H86" s="9">
@@ -3605,10 +3606,10 @@
       <c r="E87" s="22">
         <v>1.172E-2</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="22">
         <v>2.9222000000000001E-2</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="22">
         <v>0.82550599999999996</v>
       </c>
       <c r="H87" s="9">
@@ -3634,10 +3635,10 @@
       <c r="E88" s="22">
         <v>1.1350000000000001E-2</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="22">
         <v>3.0258E-2</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="22">
         <v>0.88353999999999999</v>
       </c>
       <c r="H88" s="9">
@@ -3663,10 +3664,10 @@
       <c r="E89" s="22">
         <v>8.2799999999999992E-3</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="22">
         <v>3.3584999999999997E-2</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="22">
         <v>0.87763199999999997</v>
       </c>
       <c r="H89" s="9">
@@ -3692,10 +3693,10 @@
       <c r="E90" s="22">
         <v>5.7200000000000003E-3</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="22">
         <v>3.4591999999999998E-2</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="22">
         <v>0.85806099999999996</v>
       </c>
       <c r="H90" s="9">
@@ -3721,10 +3722,10 @@
       <c r="E91" s="22">
         <v>1.2489999999999999E-2</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="22">
         <v>3.4925999999999999E-2</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="22">
         <v>0.90321799999999997</v>
       </c>
       <c r="H91" s="9">
@@ -3750,10 +3751,10 @@
       <c r="E92" s="22">
         <v>1.5169999999999999E-2</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="22">
         <v>3.5078999999999999E-2</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="22">
         <v>0.86712400000000001</v>
       </c>
       <c r="H92" s="9">
@@ -3779,10 +3780,10 @@
       <c r="E93" s="22">
         <v>2.0709999999999999E-2</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="22">
         <v>3.5414000000000001E-2</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="22">
         <v>0.83109900000000003</v>
       </c>
       <c r="H93" s="9">
@@ -3808,10 +3809,10 @@
       <c r="E94" s="22">
         <v>1.755E-2</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94" s="22">
         <v>3.6123000000000002E-2</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="22">
         <v>0.85466200000000003</v>
       </c>
       <c r="H94" s="9">
@@ -3837,10 +3838,10 @@
       <c r="E95" s="22">
         <v>1.8360000000000001E-2</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="22">
         <v>3.8038000000000002E-2</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="22">
         <v>0.78775099999999998</v>
       </c>
       <c r="H95" s="9">
@@ -3866,10 +3867,10 @@
       <c r="E96" s="22">
         <v>1.601E-2</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="22">
         <v>3.8075999999999999E-2</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="22">
         <v>0.81359400000000004</v>
       </c>
       <c r="H96" s="9">
@@ -3895,10 +3896,10 @@
       <c r="E97" s="22">
         <v>1.225E-2</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97" s="22">
         <v>3.8397000000000001E-2</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G97" s="22">
         <v>0.86049500000000001</v>
       </c>
       <c r="H97" s="9">
@@ -3924,10 +3925,10 @@
       <c r="E98" s="22">
         <v>1.017E-2</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="22">
         <v>3.8398000000000002E-2</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="22">
         <v>0.82543100000000003</v>
       </c>
       <c r="H98" s="9">
@@ -3953,10 +3954,10 @@
       <c r="E99" s="22">
         <v>9.9699999999999997E-3</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="22">
         <v>3.8974000000000002E-2</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="22">
         <v>0.84723899999999996</v>
       </c>
       <c r="H99" s="9">
@@ -3982,10 +3983,10 @@
       <c r="E100" s="22">
         <v>1.4030000000000001E-2</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="22">
         <v>4.0430000000000001E-2</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="22">
         <v>0.78371800000000003</v>
       </c>
       <c r="H100" s="9">
@@ -4011,10 +4012,10 @@
       <c r="E101" s="22">
         <v>1.204E-2</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F101" s="22">
         <v>4.4816000000000002E-2</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="22">
         <v>0.83219100000000001</v>
       </c>
       <c r="H101" s="9">

--- a/maps/NC/NC20C_candidates.xlsx
+++ b/maps/NC/NC20C_candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802E037-9D20-2848-980F-6C69C474FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A06B41-29B8-C646-8B89-7049ED405F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="23560" yWindow="11360" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="B5" s="22">
         <f>MAX(DATA!E$2:E$101)</f>
-        <v>5.5590000000000001E-2</v>
+        <v>3.483E-2</v>
       </c>
       <c r="C5" s="8">
         <f>MAX(DATA!F$2:F$101)</f>
@@ -959,23 +959,23 @@
       </c>
       <c r="B6" s="22">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>1.6900200000000001E-2</v>
+        <v>1.4622699999999997E-2</v>
       </c>
       <c r="C6" s="8">
         <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>1.4643330000000001E-2</v>
+        <v>1.4660640000000001E-2</v>
       </c>
       <c r="D6" s="8">
         <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.90583843999999958</v>
+        <v>0.90609002999999944</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.43839830000000002</v>
+        <v>0.43712967999999996</v>
       </c>
       <c r="F6" s="8">
         <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>0.22920274000000002</v>
+        <v>0.22858067999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -984,23 +984,23 @@
       </c>
       <c r="B7" s="22">
         <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>1.4865E-2</v>
+        <v>1.3340000000000001E-2</v>
       </c>
       <c r="C7" s="8">
         <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>9.9799999999999993E-3</v>
+        <v>1.038E-2</v>
       </c>
       <c r="D7" s="8">
         <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.91751749999999999</v>
+        <v>0.91756599999999999</v>
       </c>
       <c r="E7" s="8">
         <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.40402300000000002</v>
+        <v>0.398262</v>
       </c>
       <c r="F7" s="8">
         <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>0.19230949999999999</v>
+        <v>0.19173000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1009,23 +1009,23 @@
       </c>
       <c r="B8" s="27">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>7.5965510488894793E-3</v>
+        <v>5.1821494029353774E-3</v>
       </c>
       <c r="C8" s="13">
         <f>STDEV(DATA!F$2:F$101)</f>
-        <v>1.1292647125994072E-2</v>
+        <v>1.1248047995429018E-2</v>
       </c>
       <c r="D8" s="13">
         <f>STDEV(DATA!G$2:G$101)</f>
-        <v>4.5378319144167283E-2</v>
+        <v>4.5415920390967389E-2</v>
       </c>
       <c r="E8" s="13">
         <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.1625491096790895</v>
+        <v>0.1626309248007683</v>
       </c>
       <c r="F8" s="13">
         <f>STDEV(DATA!I$2:I$101)</f>
-        <v>0.12558730725687492</v>
+        <v>0.12568481488149455</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,9 +1091,10 @@
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1243,292 +1244,292 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>3095277.1491629998</v>
+        <v>3095570.8999910001</v>
       </c>
       <c r="E6" s="22">
-        <v>2.351E-2</v>
+        <v>1.175E-2</v>
       </c>
       <c r="F6" s="22">
-        <v>3.3149999999999998E-3</v>
+        <v>3.4099999999999998E-3</v>
       </c>
       <c r="G6" s="22">
-        <v>0.93831100000000001</v>
+        <v>0.94458600000000004</v>
       </c>
       <c r="H6" s="9">
-        <v>0.295236</v>
+        <v>0.31060300000000002</v>
       </c>
       <c r="I6" s="9">
-        <v>0.145291</v>
+        <v>0.12511</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>3095570.8999910001</v>
+        <v>3095986.1185170002</v>
       </c>
       <c r="E7" s="22">
-        <v>1.175E-2</v>
+        <v>8.5699999999999995E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>3.4099999999999998E-3</v>
+        <v>3.545E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.94458600000000004</v>
+        <v>0.94657500000000006</v>
       </c>
       <c r="H7" s="9">
-        <v>0.31060300000000002</v>
+        <v>0.23966499999999999</v>
       </c>
       <c r="I7" s="9">
-        <v>0.12511</v>
+        <v>0.12773300000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>3095986.1185170002</v>
+        <v>3096533.0767669999</v>
       </c>
       <c r="E8" s="22">
-        <v>8.5699999999999995E-3</v>
+        <v>2.8920000000000001E-2</v>
       </c>
       <c r="F8" s="22">
-        <v>3.545E-3</v>
+        <v>3.722E-3</v>
       </c>
       <c r="G8" s="22">
-        <v>0.94657500000000006</v>
+        <v>0.93042100000000005</v>
       </c>
       <c r="H8" s="9">
-        <v>0.23966499999999999</v>
+        <v>0.33017600000000003</v>
       </c>
       <c r="I8" s="9">
-        <v>0.12773300000000001</v>
+        <v>0.16539499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>3096533.0767669999</v>
+        <v>3097466.5260589998</v>
       </c>
       <c r="E9" s="22">
-        <v>2.8920000000000001E-2</v>
+        <v>1.1979999999999999E-2</v>
       </c>
       <c r="F9" s="22">
-        <v>3.722E-3</v>
+        <v>4.0249999999999999E-3</v>
       </c>
       <c r="G9" s="22">
-        <v>0.93042100000000005</v>
+        <v>0.93839600000000001</v>
       </c>
       <c r="H9" s="9">
-        <v>0.33017600000000003</v>
+        <v>0.28712799999999999</v>
       </c>
       <c r="I9" s="9">
-        <v>0.16539499999999999</v>
+        <v>0.146229</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>3097466.5260589998</v>
+        <v>3097979.7429860001</v>
       </c>
       <c r="E10" s="22">
-        <v>1.1979999999999999E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="F10" s="22">
-        <v>4.0249999999999999E-3</v>
+        <v>4.1910000000000003E-3</v>
       </c>
       <c r="G10" s="22">
-        <v>0.93839600000000001</v>
+        <v>0.93675699999999995</v>
       </c>
       <c r="H10" s="9">
-        <v>0.28712799999999999</v>
+        <v>0.27640700000000001</v>
       </c>
       <c r="I10" s="9">
-        <v>0.146229</v>
+        <v>0.15163399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>3097979.7429860001</v>
+        <v>3098804.5881989999</v>
       </c>
       <c r="E11" s="22">
-        <v>1.5800000000000002E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="F11" s="22">
-        <v>4.1910000000000003E-3</v>
+        <v>4.4580000000000002E-3</v>
       </c>
       <c r="G11" s="22">
-        <v>0.93675699999999995</v>
+        <v>0.94244600000000001</v>
       </c>
       <c r="H11" s="9">
-        <v>0.27640700000000001</v>
+        <v>0.31693500000000002</v>
       </c>
       <c r="I11" s="9">
-        <v>0.15163399999999999</v>
+        <v>0.133552</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>3098804.5881989999</v>
+        <v>3098833.131451</v>
       </c>
       <c r="E12" s="22">
-        <v>1.78E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="F12" s="22">
-        <v>4.4580000000000002E-3</v>
+        <v>4.4679999999999997E-3</v>
       </c>
       <c r="G12" s="22">
-        <v>0.94244600000000001</v>
+        <v>0.94257599999999997</v>
       </c>
       <c r="H12" s="9">
-        <v>0.31693500000000002</v>
+        <v>0.267619</v>
       </c>
       <c r="I12" s="9">
-        <v>0.133552</v>
+        <v>0.135439</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>3098833.131451</v>
+        <v>3098873.4038149999</v>
       </c>
       <c r="E13" s="22">
-        <v>2.7799999999999998E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="F13" s="22">
-        <v>4.4679999999999997E-3</v>
+        <v>4.4809999999999997E-3</v>
       </c>
       <c r="G13" s="22">
-        <v>0.94257599999999997</v>
+        <v>0.94396100000000005</v>
       </c>
       <c r="H13" s="9">
-        <v>0.267619</v>
+        <v>0.225439</v>
       </c>
       <c r="I13" s="9">
-        <v>0.135439</v>
+        <v>0.13575000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>3098873.4038149999</v>
+        <v>3099074.748373</v>
       </c>
       <c r="E14" s="22">
-        <v>1.9199999999999998E-2</v>
+        <v>1.0460000000000001E-2</v>
       </c>
       <c r="F14" s="22">
-        <v>4.4809999999999997E-3</v>
+        <v>4.5459999999999997E-3</v>
       </c>
       <c r="G14" s="22">
-        <v>0.94396100000000005</v>
+        <v>0.95537499999999997</v>
       </c>
       <c r="H14" s="9">
-        <v>0.225439</v>
+        <v>0.26861600000000002</v>
       </c>
       <c r="I14" s="9">
-        <v>0.13575000000000001</v>
+        <v>9.7908999999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>3099074.748373</v>
+        <v>3099241.3038340001</v>
       </c>
       <c r="E15" s="22">
-        <v>1.0460000000000001E-2</v>
+        <v>1.499E-2</v>
       </c>
       <c r="F15" s="22">
-        <v>4.5459999999999997E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G15" s="22">
-        <v>0.95537499999999997</v>
+        <v>0.94460999999999995</v>
       </c>
       <c r="H15" s="9">
-        <v>0.26861600000000002</v>
+        <v>0.31659399999999999</v>
       </c>
       <c r="I15" s="9">
-        <v>9.7908999999999996E-2</v>
+        <v>0.122776</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1562,176 +1563,176 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>3099932.4240219998</v>
+        <v>3100092.7953920001</v>
       </c>
       <c r="E17" s="22">
-        <v>2.495E-2</v>
+        <v>1.027E-2</v>
       </c>
       <c r="F17" s="22">
-        <v>4.8240000000000002E-3</v>
+        <v>4.8760000000000001E-3</v>
       </c>
       <c r="G17" s="22">
-        <v>0.94415899999999997</v>
+        <v>0.93875500000000001</v>
       </c>
       <c r="H17" s="9">
-        <v>0.318828</v>
+        <v>0.29513600000000001</v>
       </c>
       <c r="I17" s="9">
-        <v>0.123949</v>
+        <v>0.14382800000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>3100333.7136369999</v>
+        <v>3101384.5638000001</v>
       </c>
       <c r="E18" s="22">
-        <v>1.491E-2</v>
+        <v>1.6639999999999999E-2</v>
       </c>
       <c r="F18" s="22">
-        <v>4.9540000000000001E-3</v>
+        <v>5.2950000000000002E-3</v>
       </c>
       <c r="G18" s="22">
-        <v>0.923566</v>
+        <v>0.94330999999999998</v>
       </c>
       <c r="H18" s="9">
-        <v>0.374805</v>
+        <v>0.33407700000000001</v>
       </c>
       <c r="I18" s="9">
-        <v>0.17737800000000001</v>
+        <v>0.127247</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>3101384.5638000001</v>
+        <v>3101421.5879319999</v>
       </c>
       <c r="E19" s="22">
-        <v>1.6639999999999999E-2</v>
+        <v>1.261E-2</v>
       </c>
       <c r="F19" s="22">
-        <v>5.2950000000000002E-3</v>
+        <v>5.3070000000000001E-3</v>
       </c>
       <c r="G19" s="22">
-        <v>0.94330999999999998</v>
+        <v>0.96804900000000005</v>
       </c>
       <c r="H19" s="9">
-        <v>0.33407700000000001</v>
+        <v>0.21348500000000001</v>
       </c>
       <c r="I19" s="9">
-        <v>0.127247</v>
+        <v>6.7089999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>3101421.5879319999</v>
+        <v>3101613.7184759998</v>
       </c>
       <c r="E20" s="22">
-        <v>1.261E-2</v>
+        <v>1.1220000000000001E-2</v>
       </c>
       <c r="F20" s="22">
-        <v>5.3070000000000001E-3</v>
+        <v>5.3689999999999996E-3</v>
       </c>
       <c r="G20" s="22">
-        <v>0.96804900000000005</v>
+        <v>0.97088799999999997</v>
       </c>
       <c r="H20" s="9">
-        <v>0.21348500000000001</v>
+        <v>0.202182</v>
       </c>
       <c r="I20" s="9">
-        <v>6.7089999999999997E-2</v>
+        <v>6.0826999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>3101613.7184759998</v>
+        <v>3101791.2332100002</v>
       </c>
       <c r="E21" s="22">
-        <v>1.1220000000000001E-2</v>
+        <v>6.8399999999999997E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>5.3689999999999996E-3</v>
+        <v>5.4270000000000004E-3</v>
       </c>
       <c r="G21" s="22">
-        <v>0.97088799999999997</v>
+        <v>0.96863900000000003</v>
       </c>
       <c r="H21" s="9">
-        <v>0.202182</v>
+        <v>0.19132299999999999</v>
       </c>
       <c r="I21" s="9">
-        <v>6.0826999999999999E-2</v>
+        <v>6.8024000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>3101791.2332100002</v>
+        <v>3103001.5093450001</v>
       </c>
       <c r="E22" s="22">
-        <v>6.8399999999999997E-3</v>
+        <v>1.153E-2</v>
       </c>
       <c r="F22" s="22">
-        <v>5.4270000000000004E-3</v>
+        <v>5.8190000000000004E-3</v>
       </c>
       <c r="G22" s="22">
-        <v>0.96863900000000003</v>
+        <v>0.92344300000000001</v>
       </c>
       <c r="H22" s="9">
-        <v>0.19132299999999999</v>
+        <v>0.37259500000000001</v>
       </c>
       <c r="I22" s="9">
-        <v>6.8024000000000001E-2</v>
+        <v>0.17805399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1823,89 +1824,89 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>3105221.7416019998</v>
+        <v>3104497.324362</v>
       </c>
       <c r="E26" s="22">
-        <v>1.729E-2</v>
+        <v>1.3769999999999999E-2</v>
       </c>
       <c r="F26" s="22">
-        <v>6.5389999999999997E-3</v>
+        <v>6.3039999999999997E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.93012499999999998</v>
+        <v>0.94144300000000003</v>
       </c>
       <c r="H26" s="9">
-        <v>0.35741000000000001</v>
+        <v>0.34187800000000002</v>
       </c>
       <c r="I26" s="9">
-        <v>0.15955900000000001</v>
+        <v>0.128798</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>3105398.1024270002</v>
+        <v>3105221.7416019998</v>
       </c>
       <c r="E27" s="22">
-        <v>9.4299999999999991E-3</v>
+        <v>1.729E-2</v>
       </c>
       <c r="F27" s="22">
-        <v>6.5960000000000003E-3</v>
+        <v>6.5389999999999997E-3</v>
       </c>
       <c r="G27" s="22">
-        <v>0.94852400000000003</v>
+        <v>0.93012499999999998</v>
       </c>
       <c r="H27" s="9">
-        <v>0.30196699999999999</v>
+        <v>0.35741000000000001</v>
       </c>
       <c r="I27" s="9">
-        <v>0.112155</v>
+        <v>0.15955900000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>3105399.2691799998</v>
+        <v>3105398.1024270002</v>
       </c>
       <c r="E28" s="22">
-        <v>1.274E-2</v>
+        <v>9.4299999999999991E-3</v>
       </c>
       <c r="F28" s="22">
         <v>6.5960000000000003E-3</v>
       </c>
       <c r="G28" s="22">
-        <v>0.94225599999999998</v>
+        <v>0.94852400000000003</v>
       </c>
       <c r="H28" s="9">
-        <v>0.33398699999999998</v>
+        <v>0.30196699999999999</v>
       </c>
       <c r="I28" s="9">
-        <v>0.12855800000000001</v>
+        <v>0.112155</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1939,31 +1940,31 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>3106087.90442</v>
+        <v>3106802.4768679999</v>
       </c>
       <c r="E30" s="22">
-        <v>2.8830000000000001E-2</v>
+        <v>1.9859999999999999E-2</v>
       </c>
       <c r="F30" s="22">
-        <v>6.8190000000000004E-3</v>
+        <v>7.051E-3</v>
       </c>
       <c r="G30" s="22">
-        <v>0.93749700000000002</v>
+        <v>0.94137599999999999</v>
       </c>
       <c r="H30" s="9">
-        <v>0.35994300000000001</v>
+        <v>0.33756700000000001</v>
       </c>
       <c r="I30" s="9">
-        <v>0.13849400000000001</v>
+        <v>0.13126299999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2055,89 +2056,89 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="23">
-        <v>3107520.3272680002</v>
+        <v>3107379.200898</v>
       </c>
       <c r="E34" s="22">
-        <v>1.1520000000000001E-2</v>
+        <v>1.022E-2</v>
       </c>
       <c r="F34" s="22">
-        <v>7.2839999999999997E-3</v>
+        <v>7.2379999999999996E-3</v>
       </c>
       <c r="G34" s="22">
-        <v>0.92727099999999996</v>
+        <v>0.93152400000000002</v>
       </c>
       <c r="H34" s="9">
-        <v>0.40568399999999999</v>
+        <v>0.380909</v>
       </c>
       <c r="I34" s="9">
-        <v>0.16411100000000001</v>
+        <v>0.15828</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>3107775.3929770002</v>
+        <v>3107520.3272680002</v>
       </c>
       <c r="E35" s="22">
-        <v>1.8200000000000001E-2</v>
+        <v>1.1520000000000001E-2</v>
       </c>
       <c r="F35" s="22">
-        <v>7.3660000000000002E-3</v>
+        <v>7.2839999999999997E-3</v>
       </c>
       <c r="G35" s="22">
-        <v>0.94008899999999995</v>
+        <v>0.92727099999999996</v>
       </c>
       <c r="H35" s="9">
-        <v>0.34308699999999998</v>
+        <v>0.40568399999999999</v>
       </c>
       <c r="I35" s="9">
-        <v>0.131633</v>
+        <v>0.16411100000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>3108639.6992879999</v>
+        <v>3107775.3929770002</v>
       </c>
       <c r="E36" s="22">
-        <v>2.801E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="F36" s="22">
-        <v>7.646E-3</v>
+        <v>7.3660000000000002E-3</v>
       </c>
       <c r="G36" s="22">
-        <v>0.93523800000000001</v>
+        <v>0.94008899999999995</v>
       </c>
       <c r="H36" s="9">
-        <v>0.372058</v>
+        <v>0.34308699999999998</v>
       </c>
       <c r="I36" s="9">
-        <v>0.14302599999999999</v>
+        <v>0.131633</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2171,31 +2172,31 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="23">
-        <v>3108940.7417649999</v>
+        <v>3108893.3051359998</v>
       </c>
       <c r="E38" s="22">
-        <v>2.6429999999999999E-2</v>
+        <v>1.528E-2</v>
       </c>
       <c r="F38" s="22">
-        <v>7.744E-3</v>
+        <v>7.7289999999999998E-3</v>
       </c>
       <c r="G38" s="22">
-        <v>0.92825100000000005</v>
+        <v>0.93602099999999999</v>
       </c>
       <c r="H38" s="9">
-        <v>0.40311399999999997</v>
+        <v>0.371168</v>
       </c>
       <c r="I38" s="9">
-        <v>0.165599</v>
+        <v>0.141067</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2229,263 +2230,263 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>3109360.5280149998</v>
+        <v>3109027.1068190001</v>
       </c>
       <c r="E40" s="22">
-        <v>9.9699999999999997E-3</v>
+        <v>1.137E-2</v>
       </c>
       <c r="F40" s="22">
-        <v>7.8799999999999999E-3</v>
+        <v>7.7720000000000003E-3</v>
       </c>
       <c r="G40" s="22">
-        <v>0.94558200000000003</v>
+        <v>0.90517800000000004</v>
       </c>
       <c r="H40" s="9">
-        <v>0.32462200000000002</v>
+        <v>0.47870699999999999</v>
       </c>
       <c r="I40" s="9">
-        <v>0.118745</v>
+        <v>0.228348</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>3110179.1639680001</v>
+        <v>3109360.5280149998</v>
       </c>
       <c r="E41" s="22">
-        <v>1.031E-2</v>
+        <v>9.9699999999999997E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>8.1449999999999995E-3</v>
+        <v>7.8799999999999999E-3</v>
       </c>
       <c r="G41" s="22">
-        <v>0.93179800000000002</v>
+        <v>0.94558200000000003</v>
       </c>
       <c r="H41" s="9">
-        <v>0.37382799999999999</v>
+        <v>0.32462200000000002</v>
       </c>
       <c r="I41" s="9">
-        <v>0.15305299999999999</v>
+        <v>0.118745</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>3110394.0300409999</v>
+        <v>3110179.1639680001</v>
       </c>
       <c r="E42" s="22">
-        <v>1.372E-2</v>
+        <v>1.031E-2</v>
       </c>
       <c r="F42" s="22">
-        <v>8.2150000000000001E-3</v>
+        <v>8.1449999999999995E-3</v>
       </c>
       <c r="G42" s="22">
-        <v>0.930724</v>
+        <v>0.93179800000000002</v>
       </c>
       <c r="H42" s="9">
-        <v>0.30140699999999998</v>
+        <v>0.37382799999999999</v>
       </c>
       <c r="I42" s="9">
-        <v>0.167102</v>
+        <v>0.15305299999999999</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>3110897.821362</v>
+        <v>3110394.0300409999</v>
       </c>
       <c r="E43" s="22">
-        <v>1.553E-2</v>
+        <v>1.372E-2</v>
       </c>
       <c r="F43" s="22">
-        <v>8.378E-3</v>
+        <v>8.2150000000000001E-3</v>
       </c>
       <c r="G43" s="22">
-        <v>0.91774599999999995</v>
+        <v>0.930724</v>
       </c>
       <c r="H43" s="9">
-        <v>0.40493200000000001</v>
+        <v>0.30140699999999998</v>
       </c>
       <c r="I43" s="9">
-        <v>0.189609</v>
+        <v>0.167102</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>3111499.9900810001</v>
+        <v>3111785.9700520001</v>
       </c>
       <c r="E44" s="22">
-        <v>3.0269999999999998E-2</v>
+        <v>1.298E-2</v>
       </c>
       <c r="F44" s="22">
-        <v>8.574E-3</v>
+        <v>8.6660000000000001E-3</v>
       </c>
       <c r="G44" s="22">
-        <v>0.90387399999999996</v>
+        <v>0.92495799999999995</v>
       </c>
       <c r="H44" s="9">
-        <v>0.48814099999999999</v>
+        <v>0.389158</v>
       </c>
       <c r="I44" s="9">
-        <v>0.231492</v>
+        <v>0.17124200000000001</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>3111785.9700520001</v>
+        <v>3112012.952517</v>
       </c>
       <c r="E45" s="22">
-        <v>1.298E-2</v>
+        <v>9.8799999999999999E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>8.6660000000000001E-3</v>
+        <v>8.7399999999999995E-3</v>
       </c>
       <c r="G45" s="22">
-        <v>0.92495799999999995</v>
+        <v>0.92005800000000004</v>
       </c>
       <c r="H45" s="9">
-        <v>0.389158</v>
+        <v>0.39042700000000002</v>
       </c>
       <c r="I45" s="9">
-        <v>0.17124200000000001</v>
+        <v>0.184088</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="23">
-        <v>3112653.325673</v>
+        <v>3112461.6424440001</v>
       </c>
       <c r="E46" s="22">
-        <v>1.482E-2</v>
+        <v>1.6279999999999999E-2</v>
       </c>
       <c r="F46" s="22">
-        <v>8.9470000000000001E-3</v>
+        <v>8.8850000000000005E-3</v>
       </c>
       <c r="G46" s="22">
-        <v>0.91468700000000003</v>
+        <v>0.92867299999999997</v>
       </c>
       <c r="H46" s="9">
-        <v>0.40993099999999999</v>
+        <v>0.34580499999999997</v>
       </c>
       <c r="I46" s="9">
-        <v>0.19927400000000001</v>
+        <v>0.16719500000000001</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>3112704.5678440002</v>
+        <v>3112653.325673</v>
       </c>
       <c r="E47" s="22">
-        <v>1.7919999999999998E-2</v>
+        <v>1.482E-2</v>
       </c>
       <c r="F47" s="22">
-        <v>8.9639999999999997E-3</v>
+        <v>8.9470000000000001E-3</v>
       </c>
       <c r="G47" s="22">
-        <v>0.91658499999999998</v>
+        <v>0.91468700000000003</v>
       </c>
       <c r="H47" s="9">
-        <v>0.37984800000000002</v>
+        <v>0.40993099999999999</v>
       </c>
       <c r="I47" s="9">
-        <v>0.196162</v>
+        <v>0.19927400000000001</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>3113080.4172140001</v>
+        <v>3112704.5678440002</v>
       </c>
       <c r="E48" s="22">
-        <v>1.251E-2</v>
+        <v>1.7919999999999998E-2</v>
       </c>
       <c r="F48" s="22">
-        <v>9.0860000000000003E-3</v>
+        <v>8.9639999999999997E-3</v>
       </c>
       <c r="G48" s="22">
-        <v>0.91593400000000003</v>
+        <v>0.91658499999999998</v>
       </c>
       <c r="H48" s="9">
-        <v>0.39587299999999997</v>
+        <v>0.37984800000000002</v>
       </c>
       <c r="I48" s="9">
-        <v>0.196765</v>
+        <v>0.196162</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2499,283 +2500,283 @@
         <v>0</v>
       </c>
       <c r="D49" s="23">
-        <v>3114090.9771770001</v>
+        <v>3112794.665908</v>
       </c>
       <c r="E49" s="22">
-        <v>1.388E-2</v>
+        <v>2.1489999999999999E-2</v>
       </c>
       <c r="F49" s="22">
-        <v>9.4129999999999995E-3</v>
+        <v>8.9929999999999993E-3</v>
       </c>
       <c r="G49" s="22">
-        <v>0.89490999999999998</v>
+        <v>0.89736800000000005</v>
       </c>
       <c r="H49" s="9">
-        <v>0.40628700000000001</v>
+        <v>0.39511200000000002</v>
       </c>
       <c r="I49" s="9">
-        <v>0.25362400000000002</v>
+        <v>0.247223</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>3115463.8412700002</v>
+        <v>3113080.4172140001</v>
       </c>
       <c r="E50" s="22">
-        <v>2.2190000000000001E-2</v>
+        <v>1.251E-2</v>
       </c>
       <c r="F50" s="22">
-        <v>9.8580000000000004E-3</v>
+        <v>9.0860000000000003E-3</v>
       </c>
       <c r="G50" s="22">
-        <v>0.92691500000000004</v>
+        <v>0.91593400000000003</v>
       </c>
       <c r="H50" s="9">
-        <v>0.35350199999999998</v>
+        <v>0.39587299999999997</v>
       </c>
       <c r="I50" s="9">
-        <v>0.17105100000000001</v>
+        <v>0.196765</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="23">
-        <v>3115816.960467</v>
+        <v>3116716.8483389998</v>
       </c>
       <c r="E51" s="22">
-        <v>2.3619999999999999E-2</v>
+        <v>2.086E-2</v>
       </c>
       <c r="F51" s="22">
-        <v>9.9729999999999992E-3</v>
+        <v>1.0265E-2</v>
       </c>
       <c r="G51" s="22">
-        <v>0.87760700000000003</v>
+        <v>0.91142999999999996</v>
       </c>
       <c r="H51" s="9">
-        <v>0.493755</v>
+        <v>0.45672099999999999</v>
       </c>
       <c r="I51" s="9">
-        <v>0.29441299999999998</v>
+        <v>0.205871</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>3115860.0884290002</v>
+        <v>3117426.8525029998</v>
       </c>
       <c r="E52" s="22">
-        <v>2.793E-2</v>
+        <v>9.6500000000000006E-3</v>
       </c>
       <c r="F52" s="22">
-        <v>9.9869999999999994E-3</v>
+        <v>1.0495000000000001E-2</v>
       </c>
       <c r="G52" s="22">
-        <v>0.90133099999999999</v>
+        <v>0.92780499999999999</v>
       </c>
       <c r="H52" s="9">
-        <v>0.42618899999999998</v>
+        <v>0.38722299999999998</v>
       </c>
       <c r="I52" s="9">
-        <v>0.24099899999999999</v>
+        <v>0.16934099999999999</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="23">
-        <v>3116074.4852029998</v>
+        <v>3119462.4892199999</v>
       </c>
       <c r="E53" s="22">
-        <v>2.8320000000000001E-2</v>
+        <v>1.2460000000000001E-2</v>
       </c>
       <c r="F53" s="22">
-        <v>1.0056000000000001E-2</v>
+        <v>1.1155E-2</v>
       </c>
       <c r="G53" s="22">
-        <v>0.90514899999999998</v>
+        <v>0.87548599999999999</v>
       </c>
       <c r="H53" s="9">
-        <v>0.481319</v>
+        <v>0.50411799999999996</v>
       </c>
       <c r="I53" s="9">
-        <v>0.22247500000000001</v>
+        <v>0.29994199999999999</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>3117426.8525029998</v>
+        <v>3119502.9342740001</v>
       </c>
       <c r="E54" s="22">
-        <v>9.6500000000000006E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F54" s="22">
-        <v>1.0495000000000001E-2</v>
+        <v>1.1168000000000001E-2</v>
       </c>
       <c r="G54" s="22">
-        <v>0.92780499999999999</v>
+        <v>0.905559</v>
       </c>
       <c r="H54" s="9">
-        <v>0.38722299999999998</v>
+        <v>0.458175</v>
       </c>
       <c r="I54" s="9">
-        <v>0.16934099999999999</v>
+        <v>0.22395200000000001</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="23">
-        <v>3119384.4493249999</v>
+        <v>3119755.6897129999</v>
       </c>
       <c r="E55" s="22">
-        <v>5.5590000000000001E-2</v>
+        <v>1.538E-2</v>
       </c>
       <c r="F55" s="22">
-        <v>1.1129E-2</v>
+        <v>1.125E-2</v>
       </c>
       <c r="G55" s="22">
-        <v>0.92200400000000005</v>
+        <v>0.93194200000000005</v>
       </c>
       <c r="H55" s="9">
-        <v>0.42135800000000001</v>
+        <v>0.37126300000000001</v>
       </c>
       <c r="I55" s="9">
-        <v>0.176812</v>
+        <v>0.154526</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>3119499.5864860001</v>
+        <v>3121236.7589079998</v>
       </c>
       <c r="E56" s="22">
-        <v>2.8559999999999999E-2</v>
+        <v>2.2239999999999999E-2</v>
       </c>
       <c r="F56" s="22">
-        <v>1.1167E-2</v>
+        <v>1.1730000000000001E-2</v>
       </c>
       <c r="G56" s="22">
-        <v>0.93226900000000001</v>
+        <v>0.91728900000000002</v>
       </c>
       <c r="H56" s="9">
-        <v>0.36797000000000002</v>
+        <v>0.39940399999999998</v>
       </c>
       <c r="I56" s="9">
-        <v>0.154006</v>
+        <v>0.19700200000000001</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="23">
-        <v>3119502.9342740001</v>
+        <v>3121643.4262489998</v>
       </c>
       <c r="E57" s="22">
-        <v>2.2499999999999999E-2</v>
+        <v>1.487E-2</v>
       </c>
       <c r="F57" s="22">
-        <v>1.1168000000000001E-2</v>
+        <v>1.1861999999999999E-2</v>
       </c>
       <c r="G57" s="22">
-        <v>0.905559</v>
+        <v>0.89943300000000004</v>
       </c>
       <c r="H57" s="9">
-        <v>0.458175</v>
+        <v>0.43325599999999997</v>
       </c>
       <c r="I57" s="9">
-        <v>0.22395200000000001</v>
+        <v>0.24451600000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="23">
-        <v>3121236.7589079998</v>
+        <v>3121720.9887239998</v>
       </c>
       <c r="E58" s="22">
-        <v>2.2239999999999999E-2</v>
+        <v>2.495E-2</v>
       </c>
       <c r="F58" s="22">
-        <v>1.1730000000000001E-2</v>
+        <v>1.1887E-2</v>
       </c>
       <c r="G58" s="22">
-        <v>0.91728900000000002</v>
+        <v>0.92375600000000002</v>
       </c>
       <c r="H58" s="9">
-        <v>0.39940399999999998</v>
+        <v>0.40853800000000001</v>
       </c>
       <c r="I58" s="9">
-        <v>0.19700200000000001</v>
+        <v>0.172765</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2867,60 +2868,60 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>3127873.7547610002</v>
+        <v>3127907.1034510001</v>
       </c>
       <c r="E62" s="22">
-        <v>1.8120000000000001E-2</v>
+        <v>1.319E-2</v>
       </c>
       <c r="F62" s="22">
-        <v>1.3880999999999999E-2</v>
+        <v>1.3892E-2</v>
       </c>
       <c r="G62" s="22">
-        <v>0.90825400000000001</v>
+        <v>0.890015</v>
       </c>
       <c r="H62" s="9">
-        <v>0.43451899999999999</v>
+        <v>0.46109499999999998</v>
       </c>
       <c r="I62" s="9">
-        <v>0.21660799999999999</v>
+        <v>0.270536</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>3127907.1034510001</v>
+        <v>3128572.088709</v>
       </c>
       <c r="E63" s="22">
-        <v>1.319E-2</v>
+        <v>1.269E-2</v>
       </c>
       <c r="F63" s="22">
-        <v>1.3892E-2</v>
+        <v>1.4107E-2</v>
       </c>
       <c r="G63" s="22">
-        <v>0.890015</v>
+        <v>0.908057</v>
       </c>
       <c r="H63" s="9">
-        <v>0.46109499999999998</v>
+        <v>0.43615999999999999</v>
       </c>
       <c r="I63" s="9">
-        <v>0.270536</v>
+        <v>0.217478</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3012,176 +3013,176 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>3133743.6575699998</v>
+        <v>3133464.0304490002</v>
       </c>
       <c r="E67" s="22">
-        <v>1.8440000000000002E-2</v>
+        <v>9.6799999999999994E-3</v>
       </c>
       <c r="F67" s="22">
-        <v>1.5783999999999999E-2</v>
+        <v>1.5692999999999999E-2</v>
       </c>
       <c r="G67" s="22">
-        <v>0.88073800000000002</v>
+        <v>0.86352899999999999</v>
       </c>
       <c r="H67" s="9">
-        <v>0.53992799999999996</v>
+        <v>0.61343199999999998</v>
       </c>
       <c r="I67" s="9">
-        <v>0.28958699999999998</v>
+        <v>0.34215800000000002</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>3134069.3778090002</v>
+        <v>3133743.6575699998</v>
       </c>
       <c r="E68" s="22">
-        <v>1.898E-2</v>
+        <v>1.8440000000000002E-2</v>
       </c>
       <c r="F68" s="22">
-        <v>1.5889E-2</v>
+        <v>1.5783999999999999E-2</v>
       </c>
       <c r="G68" s="22">
-        <v>0.88991100000000001</v>
+        <v>0.88073800000000002</v>
       </c>
       <c r="H68" s="9">
-        <v>0.50451599999999996</v>
+        <v>0.53992799999999996</v>
       </c>
       <c r="I68" s="9">
-        <v>0.26624900000000001</v>
+        <v>0.28958699999999998</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>3134460.9193500001</v>
+        <v>3134069.3778090002</v>
       </c>
       <c r="E69" s="22">
-        <v>2.086E-2</v>
+        <v>1.898E-2</v>
       </c>
       <c r="F69" s="22">
-        <v>1.6015999999999999E-2</v>
+        <v>1.5889E-2</v>
       </c>
       <c r="G69" s="22">
-        <v>0.89997700000000003</v>
+        <v>0.88991100000000001</v>
       </c>
       <c r="H69" s="9">
-        <v>0.43290000000000001</v>
+        <v>0.50451599999999996</v>
       </c>
       <c r="I69" s="9">
-        <v>0.24382999999999999</v>
+        <v>0.26624900000000001</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>3136729.8953780001</v>
+        <v>3134460.9193500001</v>
       </c>
       <c r="E70" s="22">
-        <v>2.239E-2</v>
+        <v>2.086E-2</v>
       </c>
       <c r="F70" s="22">
-        <v>1.6752E-2</v>
+        <v>1.6015999999999999E-2</v>
       </c>
       <c r="G70" s="22">
-        <v>0.86223300000000003</v>
+        <v>0.89997700000000003</v>
       </c>
       <c r="H70" s="9">
-        <v>0.62412100000000004</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="I70" s="9">
-        <v>0.34494200000000003</v>
+        <v>0.24382999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" s="23">
-        <v>3139768.0463419999</v>
+        <v>3139668.0240770001</v>
       </c>
       <c r="E71" s="22">
-        <v>1.142E-2</v>
+        <v>1.2579999999999999E-2</v>
       </c>
       <c r="F71" s="22">
-        <v>1.7736999999999999E-2</v>
+        <v>1.7704000000000001E-2</v>
       </c>
       <c r="G71" s="22">
-        <v>0.85658999999999996</v>
+        <v>0.89327000000000001</v>
       </c>
       <c r="H71" s="9">
-        <v>0.64407099999999995</v>
+        <v>0.43346099999999999</v>
       </c>
       <c r="I71" s="9">
-        <v>0.36420000000000002</v>
+        <v>0.278339</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="23">
-        <v>3142846.7943489999</v>
+        <v>3139768.0463419999</v>
       </c>
       <c r="E72" s="22">
-        <v>3.3259999999999998E-2</v>
+        <v>1.142E-2</v>
       </c>
       <c r="F72" s="22">
-        <v>1.8735000000000002E-2</v>
+        <v>1.7736999999999999E-2</v>
       </c>
       <c r="G72" s="22">
-        <v>0.89032500000000003</v>
+        <v>0.85658999999999996</v>
       </c>
       <c r="H72" s="9">
-        <v>0.44948700000000003</v>
+        <v>0.64407099999999995</v>
       </c>
       <c r="I72" s="9">
-        <v>0.28700900000000001</v>
+        <v>0.36420000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3398,22 +3399,22 @@
         <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>3155717.172146</v>
+        <v>3158323.6201570001</v>
       </c>
       <c r="E80" s="22">
-        <v>2.845E-2</v>
+        <v>1.401E-2</v>
       </c>
       <c r="F80" s="22">
-        <v>2.2905999999999999E-2</v>
+        <v>2.3751000000000001E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.86248899999999995</v>
+        <v>0.86276900000000001</v>
       </c>
       <c r="H80" s="9">
-        <v>0.55954099999999996</v>
+        <v>0.56216900000000003</v>
       </c>
       <c r="I80" s="9">
-        <v>0.35167599999999999</v>
+        <v>0.351358</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3801,83 +3802,83 @@
         <v>108</v>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="23">
-        <v>3196490.6235079998</v>
+        <v>3195416.1374639999</v>
       </c>
       <c r="E94" s="22">
-        <v>1.755E-2</v>
+        <v>9.5099999999999994E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>3.6123000000000002E-2</v>
+        <v>3.5775000000000001E-2</v>
       </c>
       <c r="G94" s="22">
-        <v>0.85466200000000003</v>
+        <v>0.85532399999999997</v>
       </c>
       <c r="H94" s="9">
-        <v>0.65291699999999997</v>
+        <v>0.65236499999999997</v>
       </c>
       <c r="I94" s="9">
-        <v>0.36204999999999998</v>
+        <v>0.36093700000000001</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="23">
-        <v>3202398.0378510002</v>
+        <v>3199756.1517110001</v>
       </c>
       <c r="E95" s="22">
-        <v>1.8360000000000001E-2</v>
+        <v>1.137E-2</v>
       </c>
       <c r="F95" s="22">
-        <v>3.8038000000000002E-2</v>
+        <v>3.7180999999999999E-2</v>
       </c>
       <c r="G95" s="22">
-        <v>0.78775099999999998</v>
+        <v>0.81435400000000002</v>
       </c>
       <c r="H95" s="9">
-        <v>0.81492900000000001</v>
+        <v>0.755274</v>
       </c>
       <c r="I95" s="9">
-        <v>0.57082299999999997</v>
+        <v>0.48657499999999998</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="23">
-        <v>3202517.2556929998</v>
+        <v>3202398.0378510002</v>
       </c>
       <c r="E96" s="22">
-        <v>1.601E-2</v>
+        <v>1.8360000000000001E-2</v>
       </c>
       <c r="F96" s="22">
-        <v>3.8075999999999999E-2</v>
+        <v>3.8038000000000002E-2</v>
       </c>
       <c r="G96" s="22">
-        <v>0.81359400000000004</v>
+        <v>0.78775099999999998</v>
       </c>
       <c r="H96" s="9">
-        <v>0.75750799999999996</v>
+        <v>0.81492900000000001</v>
       </c>
       <c r="I96" s="9">
-        <v>0.48853000000000002</v>
+        <v>0.57082299999999997</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/NC/NC20C_candidates.xlsx
+++ b/maps/NC/NC20C_candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A06B41-29B8-C646-8B89-7049ED405F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB537DE-B2C0-0B47-8151-8CF24529B6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="11360" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -959,23 +959,23 @@
       </c>
       <c r="B6" s="22">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>1.4622699999999997E-2</v>
+        <v>1.4755699999999998E-2</v>
       </c>
       <c r="C6" s="8">
         <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>1.4660640000000001E-2</v>
+        <v>1.4664070000000003E-2</v>
       </c>
       <c r="D6" s="8">
         <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.90609002999999944</v>
+        <v>0.90610756999999953</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.43712967999999996</v>
+        <v>0.43704452999999993</v>
       </c>
       <c r="F6" s="8">
         <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>0.22858067999999998</v>
+        <v>0.22854605999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -984,11 +984,11 @@
       </c>
       <c r="B7" s="22">
         <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>1.3340000000000001E-2</v>
+        <v>1.3084999999999999E-2</v>
       </c>
       <c r="C7" s="8">
         <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>1.038E-2</v>
+        <v>1.03765E-2</v>
       </c>
       <c r="D7" s="8">
         <f>MEDIAN(DATA!G$2:G$101)</f>
@@ -996,7 +996,7 @@
       </c>
       <c r="E7" s="8">
         <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.398262</v>
+        <v>0.39944299999999999</v>
       </c>
       <c r="F7" s="8">
         <f>MEDIAN(DATA!I$2:I$101)</f>
@@ -1009,23 +1009,23 @@
       </c>
       <c r="B8" s="27">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>5.1821494029353774E-3</v>
+        <v>5.5576310728055797E-3</v>
       </c>
       <c r="C8" s="13">
         <f>STDEV(DATA!F$2:F$101)</f>
-        <v>1.1248047995429018E-2</v>
+        <v>1.1242584140968997E-2</v>
       </c>
       <c r="D8" s="13">
         <f>STDEV(DATA!G$2:G$101)</f>
-        <v>4.5415920390967389E-2</v>
+        <v>4.5472603135562228E-2</v>
       </c>
       <c r="E8" s="13">
         <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.1626309248007683</v>
+        <v>0.16287151452294871</v>
       </c>
       <c r="F8" s="13">
         <f>STDEV(DATA!I$2:I$101)</f>
-        <v>0.12568481488149455</v>
+        <v>0.12582323465949438</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1505,147 +1505,147 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="23">
-        <v>3099241.3038340001</v>
+        <v>3099511.7506149998</v>
       </c>
       <c r="E15" s="22">
-        <v>1.499E-2</v>
+        <v>2.4840000000000001E-2</v>
       </c>
       <c r="F15" s="22">
-        <v>4.5999999999999999E-3</v>
+        <v>4.6880000000000003E-3</v>
       </c>
       <c r="G15" s="22">
-        <v>0.94460999999999995</v>
+        <v>0.93914799999999998</v>
       </c>
       <c r="H15" s="9">
-        <v>0.31659399999999999</v>
+        <v>0.29344500000000001</v>
       </c>
       <c r="I15" s="9">
-        <v>0.122776</v>
+        <v>0.142822</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="23">
-        <v>3099910.50135</v>
+        <v>3099721.3333399999</v>
       </c>
       <c r="E16" s="22">
-        <v>1.7590000000000001E-2</v>
+        <v>9.4900000000000002E-3</v>
       </c>
       <c r="F16" s="22">
-        <v>4.8170000000000001E-3</v>
+        <v>4.7559999999999998E-3</v>
       </c>
       <c r="G16" s="22">
-        <v>0.93782799999999999</v>
+        <v>0.95020800000000005</v>
       </c>
       <c r="H16" s="9">
-        <v>0.32063599999999998</v>
+        <v>0.28412799999999999</v>
       </c>
       <c r="I16" s="9">
-        <v>0.145788</v>
+        <v>0.109898</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>3100092.7953920001</v>
+        <v>3099910.50135</v>
       </c>
       <c r="E17" s="22">
-        <v>1.027E-2</v>
+        <v>1.7590000000000001E-2</v>
       </c>
       <c r="F17" s="22">
-        <v>4.8760000000000001E-3</v>
+        <v>4.8170000000000001E-3</v>
       </c>
       <c r="G17" s="22">
-        <v>0.93875500000000001</v>
+        <v>0.93782799999999999</v>
       </c>
       <c r="H17" s="9">
-        <v>0.29513600000000001</v>
+        <v>0.32063599999999998</v>
       </c>
       <c r="I17" s="9">
-        <v>0.14382800000000001</v>
+        <v>0.145788</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>3101384.5638000001</v>
+        <v>3101421.5879319999</v>
       </c>
       <c r="E18" s="22">
-        <v>1.6639999999999999E-2</v>
+        <v>1.261E-2</v>
       </c>
       <c r="F18" s="22">
-        <v>5.2950000000000002E-3</v>
+        <v>5.3070000000000001E-3</v>
       </c>
       <c r="G18" s="22">
-        <v>0.94330999999999998</v>
+        <v>0.96804900000000005</v>
       </c>
       <c r="H18" s="9">
-        <v>0.33407700000000001</v>
+        <v>0.21348500000000001</v>
       </c>
       <c r="I18" s="9">
-        <v>0.127247</v>
+        <v>6.7089999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>3101421.5879319999</v>
+        <v>3101477.2082329998</v>
       </c>
       <c r="E19" s="22">
-        <v>1.261E-2</v>
+        <v>9.3500000000000007E-3</v>
       </c>
       <c r="F19" s="22">
-        <v>5.3070000000000001E-3</v>
+        <v>5.3249999999999999E-3</v>
       </c>
       <c r="G19" s="22">
-        <v>0.96804900000000005</v>
+        <v>0.94385300000000005</v>
       </c>
       <c r="H19" s="9">
-        <v>0.21348500000000001</v>
+        <v>0.333094</v>
       </c>
       <c r="I19" s="9">
-        <v>6.7089999999999997E-2</v>
+        <v>0.12568699999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1708,147 +1708,147 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>3103001.5093450001</v>
+        <v>3102920.2110540001</v>
       </c>
       <c r="E22" s="22">
-        <v>1.153E-2</v>
+        <v>2.2370000000000001E-2</v>
       </c>
       <c r="F22" s="22">
-        <v>5.8190000000000004E-3</v>
+        <v>5.7930000000000004E-3</v>
       </c>
       <c r="G22" s="22">
-        <v>0.92344300000000001</v>
+        <v>0.93999299999999997</v>
       </c>
       <c r="H22" s="9">
-        <v>0.37259500000000001</v>
+        <v>0.34735500000000002</v>
       </c>
       <c r="I22" s="9">
-        <v>0.17805399999999999</v>
+        <v>0.13244400000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>3103087.7121259999</v>
+        <v>3103001.5093450001</v>
       </c>
       <c r="E23" s="22">
-        <v>3.483E-2</v>
+        <v>1.153E-2</v>
       </c>
       <c r="F23" s="22">
-        <v>5.8469999999999998E-3</v>
+        <v>5.8190000000000004E-3</v>
       </c>
       <c r="G23" s="22">
-        <v>0.92564100000000005</v>
+        <v>0.92344300000000001</v>
       </c>
       <c r="H23" s="9">
-        <v>0.38045800000000002</v>
+        <v>0.37259500000000001</v>
       </c>
       <c r="I23" s="9">
-        <v>0.174655</v>
+        <v>0.17805399999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>3103179.0418909998</v>
+        <v>3103087.7121259999</v>
       </c>
       <c r="E24" s="22">
-        <v>1.3849999999999999E-2</v>
+        <v>3.483E-2</v>
       </c>
       <c r="F24" s="22">
-        <v>5.8760000000000001E-3</v>
+        <v>5.8469999999999998E-3</v>
       </c>
       <c r="G24" s="22">
-        <v>0.96114699999999997</v>
+        <v>0.92564100000000005</v>
       </c>
       <c r="H24" s="9">
-        <v>0.243372</v>
+        <v>0.38045800000000002</v>
       </c>
       <c r="I24" s="9">
-        <v>8.3340999999999998E-2</v>
+        <v>0.174655</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>3103709.3243630002</v>
+        <v>3103179.0418909998</v>
       </c>
       <c r="E25" s="22">
-        <v>1.26E-2</v>
+        <v>1.3849999999999999E-2</v>
       </c>
       <c r="F25" s="22">
-        <v>6.0480000000000004E-3</v>
+        <v>5.8760000000000001E-3</v>
       </c>
       <c r="G25" s="22">
-        <v>0.91784299999999996</v>
+        <v>0.96114699999999997</v>
       </c>
       <c r="H25" s="9">
-        <v>0.36580200000000002</v>
+        <v>0.243372</v>
       </c>
       <c r="I25" s="9">
-        <v>0.19500999999999999</v>
+        <v>8.3340999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>3104497.324362</v>
+        <v>3103709.3243630002</v>
       </c>
       <c r="E26" s="22">
-        <v>1.3769999999999999E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="F26" s="22">
-        <v>6.3039999999999997E-3</v>
+        <v>6.0480000000000004E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.94144300000000003</v>
+        <v>0.91784299999999996</v>
       </c>
       <c r="H26" s="9">
-        <v>0.34187800000000002</v>
+        <v>0.36580200000000002</v>
       </c>
       <c r="I26" s="9">
-        <v>0.128798</v>
+        <v>0.19500999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2491,147 +2491,147 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>3112794.665908</v>
+        <v>3113080.4172140001</v>
       </c>
       <c r="E49" s="22">
-        <v>2.1489999999999999E-2</v>
+        <v>1.251E-2</v>
       </c>
       <c r="F49" s="22">
-        <v>8.9929999999999993E-3</v>
+        <v>9.0860000000000003E-3</v>
       </c>
       <c r="G49" s="22">
-        <v>0.89736800000000005</v>
+        <v>0.91593400000000003</v>
       </c>
       <c r="H49" s="9">
-        <v>0.39511200000000002</v>
+        <v>0.39587299999999997</v>
       </c>
       <c r="I49" s="9">
-        <v>0.247223</v>
+        <v>0.196765</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="23">
-        <v>3113080.4172140001</v>
+        <v>3116716.8483389998</v>
       </c>
       <c r="E50" s="22">
-        <v>1.251E-2</v>
+        <v>2.086E-2</v>
       </c>
       <c r="F50" s="22">
-        <v>9.0860000000000003E-3</v>
+        <v>1.0265E-2</v>
       </c>
       <c r="G50" s="22">
-        <v>0.91593400000000003</v>
+        <v>0.91142999999999996</v>
       </c>
       <c r="H50" s="9">
-        <v>0.39587299999999997</v>
+        <v>0.45672099999999999</v>
       </c>
       <c r="I50" s="9">
-        <v>0.196765</v>
+        <v>0.205871</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="23">
-        <v>3116716.8483389998</v>
+        <v>3117001.4632890001</v>
       </c>
       <c r="E51" s="22">
-        <v>2.086E-2</v>
+        <v>1.021E-2</v>
       </c>
       <c r="F51" s="22">
-        <v>1.0265E-2</v>
+        <v>1.0357E-2</v>
       </c>
       <c r="G51" s="22">
-        <v>0.91142999999999996</v>
+        <v>0.87782499999999997</v>
       </c>
       <c r="H51" s="9">
-        <v>0.45672099999999999</v>
+        <v>0.49546299999999999</v>
       </c>
       <c r="I51" s="9">
-        <v>0.205871</v>
+        <v>0.29436299999999999</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>3117426.8525029998</v>
+        <v>3117121.189026</v>
       </c>
       <c r="E52" s="22">
-        <v>9.6500000000000006E-3</v>
+        <v>2.8989999999999998E-2</v>
       </c>
       <c r="F52" s="22">
-        <v>1.0495000000000001E-2</v>
+        <v>1.0396000000000001E-2</v>
       </c>
       <c r="G52" s="22">
-        <v>0.92780499999999999</v>
+        <v>0.89480999999999999</v>
       </c>
       <c r="H52" s="9">
-        <v>0.38722299999999998</v>
+        <v>0.40437400000000001</v>
       </c>
       <c r="I52" s="9">
-        <v>0.16934099999999999</v>
+        <v>0.253722</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>3119462.4892199999</v>
+        <v>3117426.8525029998</v>
       </c>
       <c r="E53" s="22">
-        <v>1.2460000000000001E-2</v>
+        <v>9.6500000000000006E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>1.1155E-2</v>
+        <v>1.0495000000000001E-2</v>
       </c>
       <c r="G53" s="22">
-        <v>0.87548599999999999</v>
+        <v>0.92780499999999999</v>
       </c>
       <c r="H53" s="9">
-        <v>0.50411799999999996</v>
+        <v>0.38722299999999998</v>
       </c>
       <c r="I53" s="9">
-        <v>0.29994199999999999</v>
+        <v>0.16934099999999999</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3129,60 +3129,60 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" s="23">
-        <v>3139668.0240770001</v>
+        <v>3139768.0463419999</v>
       </c>
       <c r="E71" s="22">
-        <v>1.2579999999999999E-2</v>
+        <v>1.142E-2</v>
       </c>
       <c r="F71" s="22">
-        <v>1.7704000000000001E-2</v>
+        <v>1.7736999999999999E-2</v>
       </c>
       <c r="G71" s="22">
-        <v>0.89327000000000001</v>
+        <v>0.85658999999999996</v>
       </c>
       <c r="H71" s="9">
-        <v>0.43346099999999999</v>
+        <v>0.64407099999999995</v>
       </c>
       <c r="I71" s="9">
-        <v>0.278339</v>
+        <v>0.36420000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>3139768.0463419999</v>
+        <v>3142389.0638919999</v>
       </c>
       <c r="E72" s="22">
-        <v>1.142E-2</v>
+        <v>1.261E-2</v>
       </c>
       <c r="F72" s="22">
-        <v>1.7736999999999999E-2</v>
+        <v>1.8585999999999998E-2</v>
       </c>
       <c r="G72" s="22">
-        <v>0.85658999999999996</v>
+        <v>0.89151400000000003</v>
       </c>
       <c r="H72" s="9">
-        <v>0.64407099999999995</v>
+        <v>0.44893899999999998</v>
       </c>
       <c r="I72" s="9">
-        <v>0.36420000000000002</v>
+        <v>0.28238000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3396,25 +3396,25 @@
         <v>94</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="23">
-        <v>3158323.6201570001</v>
+        <v>3157424.414595</v>
       </c>
       <c r="E80" s="22">
-        <v>1.401E-2</v>
+        <v>6.96E-3</v>
       </c>
       <c r="F80" s="22">
-        <v>2.3751000000000001E-2</v>
+        <v>2.3460000000000002E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.86276900000000001</v>
+        <v>0.861456</v>
       </c>
       <c r="H80" s="9">
-        <v>0.56216900000000003</v>
+        <v>0.56990499999999999</v>
       </c>
       <c r="I80" s="9">
-        <v>0.351358</v>
+        <v>0.35458499999999998</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3805,22 +3805,22 @@
         <v>0</v>
       </c>
       <c r="D94" s="23">
-        <v>3195416.1374639999</v>
+        <v>3194368.2294160002</v>
       </c>
       <c r="E94" s="22">
-        <v>9.5099999999999994E-3</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="F94" s="22">
-        <v>3.5775000000000001E-2</v>
+        <v>3.5435000000000001E-2</v>
       </c>
       <c r="G94" s="22">
-        <v>0.85532399999999997</v>
+        <v>0.85528199999999999</v>
       </c>
       <c r="H94" s="9">
-        <v>0.65236499999999997</v>
+        <v>0.64969200000000005</v>
       </c>
       <c r="I94" s="9">
-        <v>0.36093700000000001</v>
+        <v>0.36108499999999999</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">

--- a/maps/NC/NC20C_candidates.xlsx
+++ b/maps/NC/NC20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB537DE-B2C0-0B47-8151-8CF24529B6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A98DDD-F4A7-BB45-9C0D-FF43018D80F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="217">
   <si>
     <t>#</t>
   </si>
@@ -427,6 +427,306 @@
   </si>
   <si>
     <t>POPDEV</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>0.088974</t>
+  </si>
+  <si>
+    <t>0.083245</t>
+  </si>
+  <si>
+    <t>0.067525</t>
+  </si>
+  <si>
+    <t>0.270848</t>
+  </si>
+  <si>
+    <t>0.236110</t>
+  </si>
+  <si>
+    <t>0.238418</t>
+  </si>
+  <si>
+    <t>0.231344</t>
+  </si>
+  <si>
+    <t>0.247471</t>
+  </si>
+  <si>
+    <t>0.296474</t>
+  </si>
+  <si>
+    <t>0.190126</t>
+  </si>
+  <si>
+    <t>0.194245</t>
+  </si>
+  <si>
+    <t>0.153623</t>
+  </si>
+  <si>
+    <t>0.279660</t>
+  </si>
+  <si>
+    <t>0.309032</t>
+  </si>
+  <si>
+    <t>0.178633</t>
+  </si>
+  <si>
+    <t>0.310962</t>
+  </si>
+  <si>
+    <t>0.209182</t>
+  </si>
+  <si>
+    <t>0.216652</t>
+  </si>
+  <si>
+    <t>0.175690</t>
+  </si>
+  <si>
+    <t>0.123597</t>
+  </si>
+  <si>
+    <t>0.182787</t>
+  </si>
+  <si>
+    <t>0.287813</t>
+  </si>
+  <si>
+    <t>0.238080</t>
+  </si>
+  <si>
+    <t>0.287480</t>
+  </si>
+  <si>
+    <t>0.267976</t>
+  </si>
+  <si>
+    <t>0.372074</t>
+  </si>
+  <si>
+    <t>0.163595</t>
+  </si>
+  <si>
+    <t>0.235155</t>
+  </si>
+  <si>
+    <t>0.247044</t>
+  </si>
+  <si>
+    <t>0.132639</t>
+  </si>
+  <si>
+    <t>0.185986</t>
+  </si>
+  <si>
+    <t>0.334792</t>
+  </si>
+  <si>
+    <t>0.309473</t>
+  </si>
+  <si>
+    <t>0.262093</t>
+  </si>
+  <si>
+    <t>0.530713</t>
+  </si>
+  <si>
+    <t>0.319132</t>
+  </si>
+  <si>
+    <t>0.302707</t>
+  </si>
+  <si>
+    <t>0.231221</t>
+  </si>
+  <si>
+    <t>0.306874</t>
+  </si>
+  <si>
+    <t>0.312500</t>
+  </si>
+  <si>
+    <t>0.411780</t>
+  </si>
+  <si>
+    <t>0.491838</t>
+  </si>
+  <si>
+    <t>0.371184</t>
+  </si>
+  <si>
+    <t>0.187883</t>
+  </si>
+  <si>
+    <t>0.304749</t>
+  </si>
+  <si>
+    <t>0.158766</t>
+  </si>
+  <si>
+    <t>0.330410</t>
+  </si>
+  <si>
+    <t>0.525340</t>
+  </si>
+  <si>
+    <t>0.264222</t>
+  </si>
+  <si>
+    <t>0.618459</t>
+  </si>
+  <si>
+    <t>0.336699</t>
+  </si>
+  <si>
+    <t>0.601966</t>
+  </si>
+  <si>
+    <t>0.537742</t>
+  </si>
+  <si>
+    <t>0.716345</t>
+  </si>
+  <si>
+    <t>0.618753</t>
+  </si>
+  <si>
+    <t>0.381528</t>
+  </si>
+  <si>
+    <t>0.605404</t>
+  </si>
+  <si>
+    <t>0.192269</t>
+  </si>
+  <si>
+    <t>0.374250</t>
+  </si>
+  <si>
+    <t>0.342659</t>
+  </si>
+  <si>
+    <t>0.681516</t>
+  </si>
+  <si>
+    <t>0.445991</t>
+  </si>
+  <si>
+    <t>0.413802</t>
+  </si>
+  <si>
+    <t>0.564834</t>
+  </si>
+  <si>
+    <t>0.339795</t>
+  </si>
+  <si>
+    <t>0.481600</t>
+  </si>
+  <si>
+    <t>0.493493</t>
+  </si>
+  <si>
+    <t>0.309808</t>
+  </si>
+  <si>
+    <t>0.385916</t>
+  </si>
+  <si>
+    <t>0.458218</t>
+  </si>
+  <si>
+    <t>0.285617</t>
+  </si>
+  <si>
+    <t>0.663248</t>
+  </si>
+  <si>
+    <t>0.755108</t>
+  </si>
+  <si>
+    <t>0.359353</t>
+  </si>
+  <si>
+    <t>0.385569</t>
+  </si>
+  <si>
+    <t>0.388173</t>
+  </si>
+  <si>
+    <t>0.600116</t>
+  </si>
+  <si>
+    <t>0.431648</t>
+  </si>
+  <si>
+    <t>0.750992</t>
+  </si>
+  <si>
+    <t>0.477868</t>
+  </si>
+  <si>
+    <t>0.529676</t>
+  </si>
+  <si>
+    <t>0.572010</t>
+  </si>
+  <si>
+    <t>0.649400</t>
+  </si>
+  <si>
+    <t>0.726360</t>
+  </si>
+  <si>
+    <t>0.414913</t>
+  </si>
+  <si>
+    <t>0.349875</t>
+  </si>
+  <si>
+    <t>0.561969</t>
+  </si>
+  <si>
+    <t>0.455153</t>
+  </si>
+  <si>
+    <t>0.546047</t>
+  </si>
+  <si>
+    <t>0.615248</t>
+  </si>
+  <si>
+    <t>0.729829</t>
+  </si>
+  <si>
+    <t>0.461681</t>
+  </si>
+  <si>
+    <t>0.609776</t>
+  </si>
+  <si>
+    <t>0.890217</t>
+  </si>
+  <si>
+    <t>0.877345</t>
+  </si>
+  <si>
+    <t>0.780513</t>
+  </si>
+  <si>
+    <t>0.921719</t>
+  </si>
+  <si>
+    <t>0.889461</t>
+  </si>
+  <si>
+    <t>0.847818</t>
   </si>
 </sst>
 </file>
@@ -558,11 +858,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,7 +1209,7 @@
       </c>
       <c r="B4" s="22">
         <f>MIN(DATA!E$2:E$101)</f>
-        <v>5.7200000000000003E-3</v>
+        <v>4.28E-3</v>
       </c>
       <c r="C4" s="8">
         <f>MIN(DATA!F$2:F$101)</f>
@@ -917,7 +1217,7 @@
       </c>
       <c r="D4" s="8">
         <f>MIN(DATA!G$2:G$101)</f>
-        <v>0.76261299999999999</v>
+        <v>0.67326900000000001</v>
       </c>
       <c r="E4" s="8">
         <f>MIN(DATA!H$2:H$101)</f>
@@ -934,11 +1234,11 @@
       </c>
       <c r="B5" s="22">
         <f>MAX(DATA!E$2:E$101)</f>
-        <v>3.483E-2</v>
+        <v>2.315E-2</v>
       </c>
       <c r="C5" s="8">
         <f>MAX(DATA!F$2:F$101)</f>
-        <v>4.4816000000000002E-2</v>
+        <v>0.14521100000000001</v>
       </c>
       <c r="D5" s="8">
         <f>MAX(DATA!G$2:G$101)</f>
@@ -946,11 +1246,11 @@
       </c>
       <c r="E5" s="8">
         <f>MAX(DATA!H$2:H$101)</f>
-        <v>0.84352899999999997</v>
+        <v>1.026294</v>
       </c>
       <c r="F5" s="8">
         <f>MAX(DATA!I$2:I$101)</f>
-        <v>0.68059099999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -959,23 +1259,23 @@
       </c>
       <c r="B6" s="22">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>1.4755699999999998E-2</v>
+        <v>1.0414E-2</v>
       </c>
       <c r="C6" s="8">
         <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>1.4664070000000003E-2</v>
+        <v>2.6165110000000002E-2</v>
       </c>
       <c r="D6" s="8">
         <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.90610756999999953</v>
+        <v>0.84861678000000029</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.43704452999999993</v>
-      </c>
-      <c r="F6" s="8">
+        <v>0.61839718000000021</v>
+      </c>
+      <c r="F6" s="8" t="e">
         <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>0.22854605999999997</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -984,23 +1284,23 @@
       </c>
       <c r="B7" s="22">
         <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>1.3084999999999999E-2</v>
+        <v>9.5449999999999997E-3</v>
       </c>
       <c r="C7" s="8">
         <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>1.03765E-2</v>
+        <v>1.45895E-2</v>
       </c>
       <c r="D7" s="8">
         <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.91756599999999999</v>
+        <v>0.86038899999999996</v>
       </c>
       <c r="E7" s="8">
         <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.39944299999999999</v>
-      </c>
-      <c r="F7" s="8">
+        <v>0.61143999999999998</v>
+      </c>
+      <c r="F7" s="8" t="e">
         <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>0.19173000000000001</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1009,23 +1309,23 @@
       </c>
       <c r="B8" s="27">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>5.5576310728055797E-3</v>
+        <v>3.9025019169913618E-3</v>
       </c>
       <c r="C8" s="13">
         <f>STDEV(DATA!F$2:F$101)</f>
-        <v>1.1242584140968997E-2</v>
+        <v>2.6525631348990081E-2</v>
       </c>
       <c r="D8" s="13">
         <f>STDEV(DATA!G$2:G$101)</f>
-        <v>4.5472603135562228E-2</v>
+        <v>6.7940862745015027E-2</v>
       </c>
       <c r="E8" s="13">
         <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.16287151452294871</v>
-      </c>
-      <c r="F8" s="13">
+        <v>0.19393844047523667</v>
+      </c>
+      <c r="F8" s="13" t="e">
         <f>STDEV(DATA!I$2:I$101)</f>
-        <v>0.12582323465949438</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,7 +1382,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,9 +1392,10 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1122,25 +1423,25 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="25">
-        <v>3085049.8974159998</v>
+        <v>3085822.6804189999</v>
       </c>
       <c r="E2" s="21">
-        <v>8.8100000000000001E-3</v>
+        <v>1.196E-2</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
@@ -1151,2183 +1452,2183 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
+      <c r="I2" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>3086692.152667</v>
+        <v>3091360.325129</v>
       </c>
       <c r="E3" s="22">
-        <v>1.396E-2</v>
+        <v>1.099E-2</v>
       </c>
       <c r="F3" s="22">
-        <v>5.3200000000000003E-4</v>
+        <v>1.7949999999999999E-3</v>
       </c>
       <c r="G3" s="22">
-        <v>0.97811999999999999</v>
+        <v>0.95836299999999996</v>
       </c>
       <c r="H3" s="9">
-        <v>0.15829699999999999</v>
-      </c>
-      <c r="I3" s="9">
-        <v>4.514E-2</v>
+        <v>0.26617299999999999</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>3089253.9103080002</v>
+        <v>3093686.026298</v>
       </c>
       <c r="E4" s="22">
-        <v>1.025E-2</v>
+        <v>1.5640000000000001E-2</v>
       </c>
       <c r="F4" s="22">
-        <v>1.3630000000000001E-3</v>
+        <v>2.5479999999999999E-3</v>
       </c>
       <c r="G4" s="22">
-        <v>0.96819999999999995</v>
+        <v>0.96063699999999996</v>
       </c>
       <c r="H4" s="9">
-        <v>0.18333199999999999</v>
-      </c>
-      <c r="I4" s="9">
-        <v>7.0786000000000002E-2</v>
+        <v>0.256967</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>3092149.1845340002</v>
+        <v>3095700.5388790001</v>
       </c>
       <c r="E5" s="22">
-        <v>1.67E-2</v>
+        <v>1.064E-2</v>
       </c>
       <c r="F5" s="22">
-        <v>2.3010000000000001E-3</v>
+        <v>3.2009999999999999E-3</v>
       </c>
       <c r="G5" s="22">
-        <v>0.95255999999999996</v>
+        <v>0.96788099999999999</v>
       </c>
       <c r="H5" s="9">
-        <v>0.23216800000000001</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.110823</v>
+        <v>0.20786399999999999</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>3095570.8999910001</v>
+        <v>3095984.8703279998</v>
       </c>
       <c r="E6" s="22">
-        <v>1.175E-2</v>
+        <v>1.0919999999999999E-2</v>
       </c>
       <c r="F6" s="22">
-        <v>3.4099999999999998E-3</v>
+        <v>3.2929999999999999E-3</v>
       </c>
       <c r="G6" s="22">
-        <v>0.94458600000000004</v>
+        <v>0.89176699999999998</v>
       </c>
       <c r="H6" s="9">
-        <v>0.31060300000000002</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.12511</v>
+        <v>0.51963199999999998</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>3095986.1185170002</v>
+        <v>3101225.745536</v>
       </c>
       <c r="E7" s="22">
-        <v>8.5699999999999995E-3</v>
+        <v>8.2400000000000008E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>3.545E-3</v>
+        <v>4.9919999999999999E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.94657500000000006</v>
+        <v>0.90017499999999995</v>
       </c>
       <c r="H7" s="9">
-        <v>0.23966499999999999</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.12773300000000001</v>
+        <v>0.48464800000000002</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>3096533.0767669999</v>
+        <v>3102369.785621</v>
       </c>
       <c r="E8" s="22">
-        <v>2.8920000000000001E-2</v>
+        <v>1.8069999999999999E-2</v>
       </c>
       <c r="F8" s="22">
-        <v>3.722E-3</v>
+        <v>5.3619999999999996E-3</v>
       </c>
       <c r="G8" s="22">
-        <v>0.93042100000000005</v>
+        <v>0.900837</v>
       </c>
       <c r="H8" s="9">
-        <v>0.33017600000000003</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0.16539499999999999</v>
+        <v>0.49046499999999998</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>3097466.5260589998</v>
+        <v>3102675.4609770002</v>
       </c>
       <c r="E9" s="22">
-        <v>1.1979999999999999E-2</v>
+        <v>7.2399999999999999E-3</v>
       </c>
       <c r="F9" s="22">
-        <v>4.0249999999999999E-3</v>
+        <v>5.4609999999999997E-3</v>
       </c>
       <c r="G9" s="22">
-        <v>0.93839600000000001</v>
+        <v>0.90276199999999995</v>
       </c>
       <c r="H9" s="9">
-        <v>0.28712799999999999</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.146229</v>
+        <v>0.457901</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>3097979.7429860001</v>
+        <v>3102733.4235609998</v>
       </c>
       <c r="E10" s="22">
-        <v>1.5800000000000002E-2</v>
+        <v>9.5399999999999999E-3</v>
       </c>
       <c r="F10" s="22">
-        <v>4.1910000000000003E-3</v>
+        <v>5.4799999999999996E-3</v>
       </c>
       <c r="G10" s="22">
-        <v>0.93675699999999995</v>
+        <v>0.89976999999999996</v>
       </c>
       <c r="H10" s="9">
-        <v>0.27640700000000001</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0.15163399999999999</v>
+        <v>0.46788999999999997</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>3098804.5881989999</v>
+        <v>3102762.7195049999</v>
       </c>
       <c r="E11" s="22">
-        <v>1.78E-2</v>
+        <v>1.5559999999999999E-2</v>
       </c>
       <c r="F11" s="22">
-        <v>4.4580000000000002E-3</v>
+        <v>5.4900000000000001E-3</v>
       </c>
       <c r="G11" s="22">
-        <v>0.94244600000000001</v>
+        <v>0.87258999999999998</v>
       </c>
       <c r="H11" s="9">
-        <v>0.31693500000000002</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.133552</v>
+        <v>0.45949600000000002</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>3098833.131451</v>
+        <v>3103099.5981839998</v>
       </c>
       <c r="E12" s="22">
-        <v>2.7799999999999998E-2</v>
+        <v>9.0799999999999995E-3</v>
       </c>
       <c r="F12" s="22">
-        <v>4.4679999999999997E-3</v>
+        <v>5.5989999999999998E-3</v>
       </c>
       <c r="G12" s="22">
-        <v>0.94257599999999997</v>
+        <v>0.920875</v>
       </c>
       <c r="H12" s="9">
-        <v>0.267619</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.135439</v>
+        <v>0.39340399999999998</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>3098873.4038149999</v>
+        <v>3103904.5111380001</v>
       </c>
       <c r="E13" s="22">
-        <v>1.9199999999999998E-2</v>
+        <v>4.81E-3</v>
       </c>
       <c r="F13" s="22">
-        <v>4.4809999999999997E-3</v>
+        <v>5.8599999999999998E-3</v>
       </c>
       <c r="G13" s="22">
-        <v>0.94396100000000005</v>
+        <v>0.91587200000000002</v>
       </c>
       <c r="H13" s="9">
-        <v>0.225439</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.13575000000000001</v>
+        <v>0.42176599999999997</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>3099074.748373</v>
+        <v>3104266.6392979999</v>
       </c>
       <c r="E14" s="22">
-        <v>1.0460000000000001E-2</v>
+        <v>9.8899999999999995E-3</v>
       </c>
       <c r="F14" s="22">
-        <v>4.5459999999999997E-3</v>
+        <v>5.9769999999999997E-3</v>
       </c>
       <c r="G14" s="22">
-        <v>0.95537499999999997</v>
+        <v>0.93118699999999999</v>
       </c>
       <c r="H14" s="9">
-        <v>0.26861600000000002</v>
-      </c>
-      <c r="I14" s="9">
-        <v>9.7908999999999996E-2</v>
+        <v>0.37853100000000001</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>3099511.7506149998</v>
+        <v>3104330.6153500001</v>
       </c>
       <c r="E15" s="22">
-        <v>2.4840000000000001E-2</v>
+        <v>4.9800000000000001E-3</v>
       </c>
       <c r="F15" s="22">
-        <v>4.6880000000000003E-3</v>
+        <v>5.9979999999999999E-3</v>
       </c>
       <c r="G15" s="22">
-        <v>0.93914799999999998</v>
+        <v>0.899752</v>
       </c>
       <c r="H15" s="9">
-        <v>0.29344500000000001</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0.142822</v>
+        <v>0.431757</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>3099721.3333399999</v>
+        <v>3104864.5906719998</v>
       </c>
       <c r="E16" s="22">
-        <v>9.4900000000000002E-3</v>
+        <v>1.5169999999999999E-2</v>
       </c>
       <c r="F16" s="22">
-        <v>4.7559999999999998E-3</v>
+        <v>6.1710000000000003E-3</v>
       </c>
       <c r="G16" s="22">
-        <v>0.95020800000000005</v>
+        <v>0.87621800000000005</v>
       </c>
       <c r="H16" s="9">
-        <v>0.28412799999999999</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.109898</v>
+        <v>0.575569</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>3099910.50135</v>
+        <v>3104982.3850759999</v>
       </c>
       <c r="E17" s="22">
-        <v>1.7590000000000001E-2</v>
+        <v>9.2700000000000005E-3</v>
       </c>
       <c r="F17" s="22">
-        <v>4.8170000000000001E-3</v>
+        <v>6.2090000000000001E-3</v>
       </c>
       <c r="G17" s="22">
-        <v>0.93782799999999999</v>
+        <v>0.920852</v>
       </c>
       <c r="H17" s="9">
-        <v>0.32063599999999998</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.145788</v>
+        <v>0.416217</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>3101421.5879319999</v>
+        <v>3105478.6661749999</v>
       </c>
       <c r="E18" s="22">
-        <v>1.261E-2</v>
+        <v>8.4200000000000004E-3</v>
       </c>
       <c r="F18" s="22">
-        <v>5.3070000000000001E-3</v>
+        <v>6.3699999999999998E-3</v>
       </c>
       <c r="G18" s="22">
-        <v>0.96804900000000005</v>
+        <v>0.88021899999999997</v>
       </c>
       <c r="H18" s="9">
-        <v>0.21348500000000001</v>
-      </c>
-      <c r="I18" s="9">
-        <v>6.7089999999999997E-2</v>
+        <v>0.55794100000000002</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>3101477.2082329998</v>
+        <v>3105979.3146549999</v>
       </c>
       <c r="E19" s="22">
-        <v>9.3500000000000007E-3</v>
+        <v>1.4420000000000001E-2</v>
       </c>
       <c r="F19" s="22">
-        <v>5.3249999999999999E-3</v>
+        <v>6.5319999999999996E-3</v>
       </c>
       <c r="G19" s="22">
-        <v>0.94385300000000005</v>
+        <v>0.90874699999999997</v>
       </c>
       <c r="H19" s="9">
-        <v>0.333094</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.12568699999999999</v>
+        <v>0.46515299999999998</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>3101613.7184759998</v>
+        <v>3106050.0496470002</v>
       </c>
       <c r="E20" s="22">
-        <v>1.1220000000000001E-2</v>
+        <v>6.4900000000000001E-3</v>
       </c>
       <c r="F20" s="22">
-        <v>5.3689999999999996E-3</v>
+        <v>6.5550000000000001E-3</v>
       </c>
       <c r="G20" s="22">
-        <v>0.97088799999999997</v>
+        <v>0.90771400000000002</v>
       </c>
       <c r="H20" s="9">
-        <v>0.202182</v>
-      </c>
-      <c r="I20" s="9">
-        <v>6.0826999999999999E-2</v>
+        <v>0.45059700000000003</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>3101791.2332100002</v>
+        <v>3106241.559876</v>
       </c>
       <c r="E21" s="22">
-        <v>6.8399999999999997E-3</v>
+        <v>8.7100000000000007E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>5.4270000000000004E-3</v>
+        <v>6.6169999999999996E-3</v>
       </c>
       <c r="G21" s="22">
-        <v>0.96863900000000003</v>
+        <v>0.92228399999999999</v>
       </c>
       <c r="H21" s="9">
-        <v>0.19132299999999999</v>
-      </c>
-      <c r="I21" s="9">
-        <v>6.8024000000000001E-2</v>
+        <v>0.41516399999999998</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>3102920.2110540001</v>
+        <v>3106367.611184</v>
       </c>
       <c r="E22" s="22">
-        <v>2.2370000000000001E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="F22" s="22">
-        <v>5.7930000000000004E-3</v>
+        <v>6.6579999999999999E-3</v>
       </c>
       <c r="G22" s="22">
-        <v>0.93999299999999997</v>
+        <v>0.94316</v>
       </c>
       <c r="H22" s="9">
-        <v>0.34735500000000002</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.13244400000000001</v>
+        <v>0.34172999999999998</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>3103001.5093450001</v>
+        <v>3106760.6441370002</v>
       </c>
       <c r="E23" s="22">
-        <v>1.153E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F23" s="22">
-        <v>5.8190000000000004E-3</v>
+        <v>6.7850000000000002E-3</v>
       </c>
       <c r="G23" s="22">
-        <v>0.92344300000000001</v>
+        <v>0.91947800000000002</v>
       </c>
       <c r="H23" s="9">
-        <v>0.37259500000000001</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0.17805399999999999</v>
+        <v>0.43637199999999998</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>3103087.7121259999</v>
+        <v>3108185.7553719999</v>
       </c>
       <c r="E24" s="22">
-        <v>3.483E-2</v>
+        <v>5.3600000000000002E-3</v>
       </c>
       <c r="F24" s="22">
-        <v>5.8469999999999998E-3</v>
+        <v>7.247E-3</v>
       </c>
       <c r="G24" s="22">
-        <v>0.92564100000000005</v>
+        <v>0.885154</v>
       </c>
       <c r="H24" s="9">
-        <v>0.38045800000000002</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.174655</v>
+        <v>0.53073599999999999</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>3103179.0418909998</v>
+        <v>3109297.3187330002</v>
       </c>
       <c r="E25" s="22">
-        <v>1.3849999999999999E-2</v>
+        <v>1.3780000000000001E-2</v>
       </c>
       <c r="F25" s="22">
-        <v>5.8760000000000001E-3</v>
+        <v>7.607E-3</v>
       </c>
       <c r="G25" s="22">
-        <v>0.96114699999999997</v>
+        <v>0.89914700000000003</v>
       </c>
       <c r="H25" s="9">
-        <v>0.243372</v>
-      </c>
-      <c r="I25" s="9">
-        <v>8.3340999999999998E-2</v>
+        <v>0.50686200000000003</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>3103709.3243630002</v>
+        <v>3109351.5265100002</v>
       </c>
       <c r="E26" s="22">
-        <v>1.26E-2</v>
+        <v>9.4900000000000002E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>6.0480000000000004E-3</v>
+        <v>7.6249999999999998E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.91784299999999996</v>
+        <v>0.87487800000000004</v>
       </c>
       <c r="H26" s="9">
-        <v>0.36580200000000002</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0.19500999999999999</v>
+        <v>0.43488300000000002</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>3105221.7416019998</v>
+        <v>3109454.707134</v>
       </c>
       <c r="E27" s="22">
-        <v>1.729E-2</v>
+        <v>1.2109999999999999E-2</v>
       </c>
       <c r="F27" s="22">
-        <v>6.5389999999999997E-3</v>
+        <v>7.6579999999999999E-3</v>
       </c>
       <c r="G27" s="22">
-        <v>0.93012499999999998</v>
+        <v>0.88843700000000003</v>
       </c>
       <c r="H27" s="9">
-        <v>0.35741000000000001</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.15955900000000001</v>
+        <v>0.54328900000000002</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>3105398.1024270002</v>
+        <v>3110268.8170960001</v>
       </c>
       <c r="E28" s="22">
-        <v>9.4299999999999991E-3</v>
+        <v>4.28E-3</v>
       </c>
       <c r="F28" s="22">
-        <v>6.5960000000000003E-3</v>
+        <v>7.9220000000000002E-3</v>
       </c>
       <c r="G28" s="22">
-        <v>0.94852400000000003</v>
+        <v>0.86858199999999997</v>
       </c>
       <c r="H28" s="9">
-        <v>0.30196699999999999</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0.112155</v>
+        <v>0.54747100000000004</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>3106049.008678</v>
+        <v>3110560.4812059999</v>
       </c>
       <c r="E29" s="22">
-        <v>1.4489999999999999E-2</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="F29" s="22">
-        <v>6.8069999999999997E-3</v>
+        <v>8.0169999999999998E-3</v>
       </c>
       <c r="G29" s="22">
-        <v>0.89441300000000001</v>
+        <v>0.92610700000000001</v>
       </c>
       <c r="H29" s="9">
-        <v>0.399482</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0.25653900000000002</v>
+        <v>0.41856500000000002</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>3106802.4768679999</v>
+        <v>3110781.336104</v>
       </c>
       <c r="E30" s="22">
-        <v>1.9859999999999999E-2</v>
+        <v>1.438E-2</v>
       </c>
       <c r="F30" s="22">
-        <v>7.051E-3</v>
+        <v>8.0879999999999997E-3</v>
       </c>
       <c r="G30" s="22">
-        <v>0.94137599999999999</v>
+        <v>0.90066500000000005</v>
       </c>
       <c r="H30" s="9">
-        <v>0.33756700000000001</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0.13126299999999999</v>
+        <v>0.49917899999999998</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>3107143.102951</v>
+        <v>3111191.3877949999</v>
       </c>
       <c r="E31" s="22">
-        <v>2.384E-2</v>
+        <v>1.1129999999999999E-2</v>
       </c>
       <c r="F31" s="22">
-        <v>7.1609999999999998E-3</v>
+        <v>8.2209999999999991E-3</v>
       </c>
       <c r="G31" s="22">
-        <v>0.937137</v>
+        <v>0.89513399999999999</v>
       </c>
       <c r="H31" s="9">
-        <v>0.34564899999999998</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0.14028099999999999</v>
+        <v>0.52785599999999999</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>3107187.051922</v>
+        <v>3111835.0820889999</v>
       </c>
       <c r="E32" s="22">
-        <v>1.6740000000000001E-2</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F32" s="22">
-        <v>7.1760000000000001E-3</v>
+        <v>8.43E-3</v>
       </c>
       <c r="G32" s="22">
-        <v>0.94865900000000003</v>
+        <v>0.93995499999999998</v>
       </c>
       <c r="H32" s="9">
-        <v>0.30090800000000001</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0.11156199999999999</v>
+        <v>0.345744</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>3107360.955811</v>
+        <v>3113619.6789540001</v>
       </c>
       <c r="E33" s="22">
-        <v>1.061E-2</v>
+        <v>7.1900000000000002E-3</v>
       </c>
       <c r="F33" s="22">
-        <v>7.2319999999999997E-3</v>
+        <v>9.0080000000000004E-3</v>
       </c>
       <c r="G33" s="22">
-        <v>0.92965900000000001</v>
+        <v>0.91931499999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>0.39711999999999997</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0.15790799999999999</v>
+        <v>0.41309099999999999</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>3107379.200898</v>
+        <v>3113663.5322619998</v>
       </c>
       <c r="E34" s="22">
-        <v>1.022E-2</v>
+        <v>7.2899999999999996E-3</v>
       </c>
       <c r="F34" s="22">
-        <v>7.2379999999999996E-3</v>
+        <v>9.0220000000000005E-3</v>
       </c>
       <c r="G34" s="22">
-        <v>0.93152400000000002</v>
+        <v>0.88041700000000001</v>
       </c>
       <c r="H34" s="9">
-        <v>0.380909</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0.15828</v>
+        <v>0.51731700000000003</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>3107520.3272680002</v>
+        <v>3114372.6521899998</v>
       </c>
       <c r="E35" s="22">
-        <v>1.1520000000000001E-2</v>
+        <v>2.231E-2</v>
       </c>
       <c r="F35" s="22">
-        <v>7.2839999999999997E-3</v>
+        <v>9.2519999999999998E-3</v>
       </c>
       <c r="G35" s="22">
-        <v>0.92727099999999996</v>
+        <v>0.88595500000000005</v>
       </c>
       <c r="H35" s="9">
-        <v>0.40568399999999999</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0.16411100000000001</v>
+        <v>0.49825399999999997</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>3107775.3929770002</v>
+        <v>3115498.3082099999</v>
       </c>
       <c r="E36" s="22">
-        <v>1.8200000000000001E-2</v>
+        <v>7.1300000000000001E-3</v>
       </c>
       <c r="F36" s="22">
-        <v>7.3660000000000002E-3</v>
+        <v>9.6170000000000005E-3</v>
       </c>
       <c r="G36" s="22">
-        <v>0.94008899999999995</v>
+        <v>0.89215500000000003</v>
       </c>
       <c r="H36" s="9">
-        <v>0.34308699999999998</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0.131633</v>
+        <v>0.48744999999999999</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>3108667.6161839999</v>
+        <v>3115600.2503840001</v>
       </c>
       <c r="E37" s="22">
-        <v>2.2679999999999999E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="F37" s="22">
-        <v>7.6559999999999996E-3</v>
+        <v>9.6500000000000006E-3</v>
       </c>
       <c r="G37" s="22">
-        <v>0.94710000000000005</v>
+        <v>0.81180600000000003</v>
       </c>
       <c r="H37" s="9">
-        <v>0.31482399999999999</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0.11706900000000001</v>
+        <v>0.75460300000000002</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>3108893.3051359998</v>
+        <v>3116223.4893990001</v>
       </c>
       <c r="E38" s="22">
-        <v>1.528E-2</v>
+        <v>1.508E-2</v>
       </c>
       <c r="F38" s="22">
-        <v>7.7289999999999998E-3</v>
+        <v>9.8519999999999996E-3</v>
       </c>
       <c r="G38" s="22">
-        <v>0.93602099999999999</v>
+        <v>0.88066999999999995</v>
       </c>
       <c r="H38" s="9">
-        <v>0.371168</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0.141067</v>
+        <v>0.54672799999999999</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>3108961.8384759999</v>
+        <v>3116481.1979760001</v>
       </c>
       <c r="E39" s="22">
-        <v>1.354E-2</v>
+        <v>2.102E-2</v>
       </c>
       <c r="F39" s="22">
-        <v>7.7510000000000001E-3</v>
+        <v>9.9349999999999994E-3</v>
       </c>
       <c r="G39" s="22">
-        <v>0.93010199999999998</v>
+        <v>0.884293</v>
       </c>
       <c r="H39" s="9">
-        <v>0.397115</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0.15860399999999999</v>
+        <v>0.52774600000000005</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>3109027.1068190001</v>
+        <v>3116614.768991</v>
       </c>
       <c r="E40" s="22">
-        <v>1.137E-2</v>
+        <v>8.4799999999999997E-3</v>
       </c>
       <c r="F40" s="22">
-        <v>7.7720000000000003E-3</v>
+        <v>9.979E-3</v>
       </c>
       <c r="G40" s="22">
-        <v>0.90517800000000004</v>
+        <v>0.901667</v>
       </c>
       <c r="H40" s="9">
-        <v>0.47870699999999999</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0.228348</v>
+        <v>0.48923100000000003</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>3109360.5280149998</v>
+        <v>3117550.2174269999</v>
       </c>
       <c r="E41" s="22">
-        <v>9.9699999999999997E-3</v>
+        <v>1.2409999999999999E-2</v>
       </c>
       <c r="F41" s="22">
-        <v>7.8799999999999999E-3</v>
+        <v>1.0281999999999999E-2</v>
       </c>
       <c r="G41" s="22">
-        <v>0.94558200000000003</v>
+        <v>0.87373800000000001</v>
       </c>
       <c r="H41" s="9">
-        <v>0.32462200000000002</v>
-      </c>
-      <c r="I41" s="9">
-        <v>0.118745</v>
+        <v>0.61652600000000002</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>3110179.1639680001</v>
+        <v>3119759.0633020001</v>
       </c>
       <c r="E42" s="22">
-        <v>1.031E-2</v>
+        <v>9.4800000000000006E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>8.1449999999999995E-3</v>
+        <v>1.0998000000000001E-2</v>
       </c>
       <c r="G42" s="22">
-        <v>0.93179800000000002</v>
+        <v>0.86836500000000005</v>
       </c>
       <c r="H42" s="9">
-        <v>0.37382799999999999</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0.15305299999999999</v>
+        <v>0.50367200000000001</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>3110394.0300409999</v>
+        <v>3119980.305617</v>
       </c>
       <c r="E43" s="22">
-        <v>1.372E-2</v>
+        <v>1.0279999999999999E-2</v>
       </c>
       <c r="F43" s="22">
-        <v>8.2150000000000001E-3</v>
+        <v>1.1069000000000001E-2</v>
       </c>
       <c r="G43" s="22">
-        <v>0.930724</v>
+        <v>0.83549300000000004</v>
       </c>
       <c r="H43" s="9">
-        <v>0.30140699999999998</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0.167102</v>
+        <v>0.62297100000000005</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>3111785.9700520001</v>
+        <v>3120976.4509049999</v>
       </c>
       <c r="E44" s="22">
-        <v>1.298E-2</v>
+        <v>9.5499999999999995E-3</v>
       </c>
       <c r="F44" s="22">
-        <v>8.6660000000000001E-3</v>
+        <v>1.1391999999999999E-2</v>
       </c>
       <c r="G44" s="22">
-        <v>0.92495799999999995</v>
+        <v>0.82521100000000003</v>
       </c>
       <c r="H44" s="9">
-        <v>0.389158</v>
-      </c>
-      <c r="I44" s="9">
-        <v>0.17124200000000001</v>
+        <v>0.70042700000000002</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>3112012.952517</v>
+        <v>3121149.8624880002</v>
       </c>
       <c r="E45" s="22">
-        <v>9.8799999999999999E-3</v>
+        <v>9.7099999999999999E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>8.7399999999999995E-3</v>
+        <v>1.1448E-2</v>
       </c>
       <c r="G45" s="22">
-        <v>0.92005800000000004</v>
+        <v>0.85220799999999997</v>
       </c>
       <c r="H45" s="9">
-        <v>0.39042700000000002</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0.184088</v>
+        <v>0.641459</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>3112461.6424440001</v>
+        <v>3121314.990795</v>
       </c>
       <c r="E46" s="22">
-        <v>1.6279999999999999E-2</v>
+        <v>8.26E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>8.8850000000000005E-3</v>
+        <v>1.1502E-2</v>
       </c>
       <c r="G46" s="22">
-        <v>0.92867299999999997</v>
+        <v>0.91736499999999999</v>
       </c>
       <c r="H46" s="9">
-        <v>0.34580499999999997</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0.16719500000000001</v>
+        <v>0.437915</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>3112653.325673</v>
+        <v>3122502.6141989999</v>
       </c>
       <c r="E47" s="22">
-        <v>1.482E-2</v>
+        <v>5.94E-3</v>
       </c>
       <c r="F47" s="22">
-        <v>8.9470000000000001E-3</v>
+        <v>1.1887E-2</v>
       </c>
       <c r="G47" s="22">
-        <v>0.91468700000000003</v>
+        <v>0.874282</v>
       </c>
       <c r="H47" s="9">
-        <v>0.40993099999999999</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0.19927400000000001</v>
+        <v>0.54512000000000005</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>3112704.5678440002</v>
+        <v>3123096.7723380001</v>
       </c>
       <c r="E48" s="22">
-        <v>1.7919999999999998E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F48" s="22">
-        <v>8.9639999999999997E-3</v>
+        <v>1.2078999999999999E-2</v>
       </c>
       <c r="G48" s="22">
-        <v>0.91658499999999998</v>
+        <v>0.928674</v>
       </c>
       <c r="H48" s="9">
-        <v>0.37984800000000002</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0.196162</v>
+        <v>0.38674700000000001</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>3113080.4172140001</v>
+        <v>3123132.7988149999</v>
       </c>
       <c r="E49" s="22">
-        <v>1.251E-2</v>
+        <v>1.044E-2</v>
       </c>
       <c r="F49" s="22">
-        <v>9.0860000000000003E-3</v>
+        <v>1.2090999999999999E-2</v>
       </c>
       <c r="G49" s="22">
-        <v>0.91593400000000003</v>
+        <v>0.85915699999999995</v>
       </c>
       <c r="H49" s="9">
-        <v>0.39587299999999997</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0.196765</v>
+        <v>0.53007300000000002</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>3116716.8483389998</v>
+        <v>3124036.5005890001</v>
       </c>
       <c r="E50" s="22">
-        <v>2.086E-2</v>
+        <v>5.5300000000000002E-3</v>
       </c>
       <c r="F50" s="22">
-        <v>1.0265E-2</v>
+        <v>1.2383999999999999E-2</v>
       </c>
       <c r="G50" s="22">
-        <v>0.91142999999999996</v>
+        <v>0.81111800000000001</v>
       </c>
       <c r="H50" s="9">
-        <v>0.45672099999999999</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0.205871</v>
+        <v>0.77740699999999996</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>3117001.4632890001</v>
+        <v>3129185.903556</v>
       </c>
       <c r="E51" s="22">
-        <v>1.021E-2</v>
+        <v>1.9810000000000001E-2</v>
       </c>
       <c r="F51" s="22">
-        <v>1.0357E-2</v>
+        <v>1.4052E-2</v>
       </c>
       <c r="G51" s="22">
-        <v>0.87782499999999997</v>
+        <v>0.88987700000000003</v>
       </c>
       <c r="H51" s="9">
-        <v>0.49546299999999999</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0.29436299999999999</v>
+        <v>0.53977399999999998</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>3117121.189026</v>
+        <v>3132501.5302690002</v>
       </c>
       <c r="E52" s="22">
-        <v>2.8989999999999998E-2</v>
+        <v>1.8610000000000002E-2</v>
       </c>
       <c r="F52" s="22">
-        <v>1.0396000000000001E-2</v>
+        <v>1.5127E-2</v>
       </c>
       <c r="G52" s="22">
-        <v>0.89480999999999999</v>
+        <v>0.78423600000000004</v>
       </c>
       <c r="H52" s="9">
-        <v>0.40437400000000001</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0.253722</v>
+        <v>0.80527400000000005</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>3117426.8525029998</v>
+        <v>3133594.8647579998</v>
       </c>
       <c r="E53" s="22">
-        <v>9.6500000000000006E-3</v>
+        <v>7.28E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>1.0495000000000001E-2</v>
+        <v>1.5481E-2</v>
       </c>
       <c r="G53" s="22">
-        <v>0.92780499999999999</v>
+        <v>0.86030799999999996</v>
       </c>
       <c r="H53" s="9">
-        <v>0.38722299999999998</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0.16934099999999999</v>
+        <v>0.56201599999999996</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>3119502.9342740001</v>
+        <v>3137323.4127639998</v>
       </c>
       <c r="E54" s="22">
-        <v>2.2499999999999999E-2</v>
+        <v>7.0400000000000003E-3</v>
       </c>
       <c r="F54" s="22">
-        <v>1.1168000000000001E-2</v>
+        <v>1.6688999999999999E-2</v>
       </c>
       <c r="G54" s="22">
-        <v>0.905559</v>
+        <v>0.79468799999999995</v>
       </c>
       <c r="H54" s="9">
-        <v>0.458175</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0.22395200000000001</v>
+        <v>0.74771200000000004</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>3119755.6897129999</v>
+        <v>3143329.714596</v>
       </c>
       <c r="E55" s="22">
-        <v>1.538E-2</v>
+        <v>1.8890000000000001E-2</v>
       </c>
       <c r="F55" s="22">
-        <v>1.125E-2</v>
+        <v>1.8636E-2</v>
       </c>
       <c r="G55" s="22">
-        <v>0.93194200000000005</v>
+        <v>0.79457500000000003</v>
       </c>
       <c r="H55" s="9">
-        <v>0.37126300000000001</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0.154526</v>
+        <v>0.75805500000000003</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>3121236.7589079998</v>
+        <v>3147196.9453380001</v>
       </c>
       <c r="E56" s="22">
-        <v>2.2239999999999999E-2</v>
+        <v>7.0699999999999999E-3</v>
       </c>
       <c r="F56" s="22">
-        <v>1.1730000000000001E-2</v>
+        <v>1.9889E-2</v>
       </c>
       <c r="G56" s="22">
-        <v>0.91728900000000002</v>
+        <v>0.75669799999999998</v>
       </c>
       <c r="H56" s="9">
-        <v>0.39940399999999998</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0.19700200000000001</v>
+        <v>0.88665899999999997</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>3121643.4262489998</v>
+        <v>3147861.7394440002</v>
       </c>
       <c r="E57" s="22">
-        <v>1.487E-2</v>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="F57" s="22">
-        <v>1.1861999999999999E-2</v>
+        <v>2.0105000000000001E-2</v>
       </c>
       <c r="G57" s="22">
-        <v>0.89943300000000004</v>
+        <v>0.79089299999999996</v>
       </c>
       <c r="H57" s="9">
-        <v>0.43325599999999997</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0.24451600000000001</v>
+        <v>0.76468599999999998</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>3121720.9887239998</v>
+        <v>3150009.526234</v>
       </c>
       <c r="E58" s="22">
-        <v>2.495E-2</v>
+        <v>9.3699999999999999E-3</v>
       </c>
       <c r="F58" s="22">
-        <v>1.1887E-2</v>
+        <v>2.0801E-2</v>
       </c>
       <c r="G58" s="22">
-        <v>0.92375600000000002</v>
+        <v>0.84517600000000004</v>
       </c>
       <c r="H58" s="9">
-        <v>0.40853800000000001</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0.172765</v>
+        <v>0.61369200000000002</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>3121744.327881</v>
+        <v>3155154.2191479998</v>
       </c>
       <c r="E59" s="22">
-        <v>1.9529999999999999E-2</v>
+        <v>1.227E-2</v>
       </c>
       <c r="F59" s="22">
-        <v>1.1894E-2</v>
+        <v>2.2467999999999998E-2</v>
       </c>
       <c r="G59" s="22">
-        <v>0.91001799999999999</v>
+        <v>0.78272200000000003</v>
       </c>
       <c r="H59" s="9">
-        <v>0.41650599999999999</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0.214062</v>
+        <v>0.79234099999999996</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>3124044.0483360002</v>
+        <v>3159272.5690799998</v>
       </c>
       <c r="E60" s="22">
-        <v>9.6699999999999998E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="F60" s="22">
-        <v>1.264E-2</v>
+        <v>2.3802E-2</v>
       </c>
       <c r="G60" s="22">
-        <v>0.90029000000000003</v>
+        <v>0.91632999999999998</v>
       </c>
       <c r="H60" s="9">
-        <v>0.47716399999999998</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0.25354500000000002</v>
+        <v>0.46770200000000001</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>3124547.9356769999</v>
+        <v>3171410.0338019999</v>
       </c>
       <c r="E61" s="22">
-        <v>1.703E-2</v>
+        <v>8.4600000000000005E-3</v>
       </c>
       <c r="F61" s="22">
-        <v>1.2803E-2</v>
+        <v>2.7736E-2</v>
       </c>
       <c r="G61" s="22">
-        <v>0.930369</v>
+        <v>0.85471200000000003</v>
       </c>
       <c r="H61" s="9">
-        <v>0.37048900000000001</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0.159081</v>
+        <v>0.65093500000000004</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>3127907.1034510001</v>
+        <v>3176022.864304</v>
       </c>
       <c r="E62" s="22">
-        <v>1.319E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="F62" s="22">
-        <v>1.3892E-2</v>
+        <v>2.9231E-2</v>
       </c>
       <c r="G62" s="22">
-        <v>0.890015</v>
+        <v>0.86732600000000004</v>
       </c>
       <c r="H62" s="9">
-        <v>0.46109499999999998</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0.270536</v>
+        <v>0.60350700000000002</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>3128572.088709</v>
+        <v>3178044.675975</v>
       </c>
       <c r="E63" s="22">
-        <v>1.269E-2</v>
+        <v>7.6299999999999996E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>1.4107E-2</v>
+        <v>2.9885999999999999E-2</v>
       </c>
       <c r="G63" s="22">
-        <v>0.908057</v>
+        <v>0.74470700000000001</v>
       </c>
       <c r="H63" s="9">
-        <v>0.43615999999999999</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0.217478</v>
+        <v>0.85495600000000005</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>3129394.0290780002</v>
+        <v>3179417.8825770002</v>
       </c>
       <c r="E64" s="22">
-        <v>1.396E-2</v>
+        <v>1.2630000000000001E-2</v>
       </c>
       <c r="F64" s="22">
-        <v>1.4374E-2</v>
+        <v>3.0331E-2</v>
       </c>
       <c r="G64" s="22">
-        <v>0.87969900000000001</v>
+        <v>0.83724900000000002</v>
       </c>
       <c r="H64" s="9">
-        <v>0.49155100000000002</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0.29053099999999998</v>
+        <v>0.70777100000000004</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>3129994.3601020002</v>
+        <v>3181788.1884349999</v>
       </c>
       <c r="E65" s="22">
-        <v>1.728E-2</v>
+        <v>1.1050000000000001E-2</v>
       </c>
       <c r="F65" s="22">
-        <v>1.4567999999999999E-2</v>
+        <v>3.1099000000000002E-2</v>
       </c>
       <c r="G65" s="22">
-        <v>0.90390199999999998</v>
+        <v>0.84730499999999997</v>
       </c>
       <c r="H65" s="9">
-        <v>0.455484</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0.23099600000000001</v>
+        <v>0.66597600000000001</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>3130759.7822719999</v>
+        <v>3183084.592799</v>
       </c>
       <c r="E66" s="22">
-        <v>2.351E-2</v>
+        <v>9.3699999999999999E-3</v>
       </c>
       <c r="F66" s="22">
-        <v>1.4817E-2</v>
+        <v>3.1518999999999998E-2</v>
       </c>
       <c r="G66" s="22">
-        <v>0.87052799999999997</v>
+        <v>0.79540500000000003</v>
       </c>
       <c r="H66" s="9">
-        <v>0.55279999999999996</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0.32129200000000002</v>
+        <v>0.82197200000000004</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>3133464.0304490002</v>
+        <v>3183782.5783719998</v>
       </c>
       <c r="E67" s="22">
-        <v>9.6799999999999994E-3</v>
+        <v>1.0710000000000001E-2</v>
       </c>
       <c r="F67" s="22">
-        <v>1.5692999999999999E-2</v>
+        <v>3.1745000000000002E-2</v>
       </c>
       <c r="G67" s="22">
-        <v>0.86352899999999999</v>
+        <v>0.86064300000000005</v>
       </c>
       <c r="H67" s="9">
-        <v>0.61343199999999998</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0.34215800000000002</v>
+        <v>0.62892000000000003</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>3133743.6575699998</v>
+        <v>3190114.7563299998</v>
       </c>
       <c r="E68" s="22">
-        <v>1.8440000000000002E-2</v>
+        <v>1.0410000000000001E-2</v>
       </c>
       <c r="F68" s="22">
-        <v>1.5783999999999999E-2</v>
+        <v>3.3797000000000001E-2</v>
       </c>
       <c r="G68" s="22">
-        <v>0.88073800000000002</v>
+        <v>0.80648799999999998</v>
       </c>
       <c r="H68" s="9">
-        <v>0.53992799999999996</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0.28958699999999998</v>
+        <v>0.75667099999999998</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>3134069.3778090002</v>
+        <v>3190383.6025979999</v>
       </c>
       <c r="E69" s="22">
-        <v>1.898E-2</v>
+        <v>7.2300000000000003E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>1.5889E-2</v>
+        <v>3.3883999999999997E-2</v>
       </c>
       <c r="G69" s="22">
-        <v>0.88991100000000001</v>
+        <v>0.82070500000000002</v>
       </c>
       <c r="H69" s="9">
-        <v>0.50451599999999996</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0.26624900000000001</v>
+        <v>0.68050600000000006</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>3134460.9193500001</v>
+        <v>3190700.915143</v>
       </c>
       <c r="E70" s="22">
-        <v>2.086E-2</v>
+        <v>9.5399999999999999E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>1.6015999999999999E-2</v>
+        <v>3.3987000000000003E-2</v>
       </c>
       <c r="G70" s="22">
-        <v>0.89997700000000003</v>
+        <v>0.87003200000000003</v>
       </c>
       <c r="H70" s="9">
-        <v>0.43290000000000001</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0.24382999999999999</v>
+        <v>0.60918799999999995</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>3139768.0463419999</v>
+        <v>3191051.1854909998</v>
       </c>
       <c r="E71" s="22">
-        <v>1.142E-2</v>
+        <v>1.184E-2</v>
       </c>
       <c r="F71" s="22">
-        <v>1.7736999999999999E-2</v>
+        <v>3.4100999999999999E-2</v>
       </c>
       <c r="G71" s="22">
-        <v>0.85658999999999996</v>
+        <v>0.84206499999999995</v>
       </c>
       <c r="H71" s="9">
-        <v>0.64407099999999995</v>
-      </c>
-      <c r="I71" s="9">
-        <v>0.36420000000000002</v>
+        <v>0.68879000000000001</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>3142389.0638919999</v>
+        <v>3191227.470367</v>
       </c>
       <c r="E72" s="22">
-        <v>1.261E-2</v>
+        <v>6.5199999999999998E-3</v>
       </c>
       <c r="F72" s="22">
-        <v>1.8585999999999998E-2</v>
+        <v>3.4158000000000001E-2</v>
       </c>
       <c r="G72" s="22">
-        <v>0.89151400000000003</v>
+        <v>0.80108400000000002</v>
       </c>
       <c r="H72" s="9">
-        <v>0.44893899999999998</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0.28238000000000002</v>
+        <v>0.671983</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>3144476.0273449998</v>
+        <v>3192568.234259</v>
       </c>
       <c r="E73" s="22">
-        <v>1.052E-2</v>
+        <v>9.7199999999999995E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>1.9262999999999999E-2</v>
+        <v>3.4591999999999998E-2</v>
       </c>
       <c r="G73" s="22">
-        <v>0.85869300000000004</v>
+        <v>0.88059900000000002</v>
       </c>
       <c r="H73" s="9">
-        <v>0.62083999999999995</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0.354516</v>
+        <v>0.55952500000000005</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>3147449.512776</v>
+        <v>3197294.334698</v>
       </c>
       <c r="E74" s="22">
-        <v>1.094E-2</v>
+        <v>1.7080000000000001E-2</v>
       </c>
       <c r="F74" s="22">
-        <v>2.0226000000000001E-2</v>
+        <v>3.6124000000000003E-2</v>
       </c>
       <c r="G74" s="22">
-        <v>0.91929899999999998</v>
+        <v>0.76821899999999999</v>
       </c>
       <c r="H74" s="9">
-        <v>0.45449200000000001</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0.18529200000000001</v>
+        <v>0.81806900000000005</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>3147895.3405530001</v>
+        <v>3197597.5456559998</v>
       </c>
       <c r="E75" s="22">
-        <v>9.3799999999999994E-3</v>
+        <v>1.337E-2</v>
       </c>
       <c r="F75" s="22">
-        <v>2.0371E-2</v>
+        <v>3.6221999999999997E-2</v>
       </c>
       <c r="G75" s="22">
-        <v>0.88028700000000004</v>
+        <v>0.736869</v>
       </c>
       <c r="H75" s="9">
-        <v>0.50628700000000004</v>
-      </c>
-      <c r="I75" s="9">
-        <v>0.29336299999999998</v>
+        <v>0.94779500000000005</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>3148092.1208230001</v>
+        <v>3197885.583571</v>
       </c>
       <c r="E76" s="22">
-        <v>2.3300000000000001E-2</v>
+        <v>9.9100000000000004E-3</v>
       </c>
       <c r="F76" s="22">
-        <v>2.0434999999999998E-2</v>
+        <v>3.6315E-2</v>
       </c>
       <c r="G76" s="22">
-        <v>0.87245600000000001</v>
+        <v>0.85431500000000005</v>
       </c>
       <c r="H76" s="9">
-        <v>0.56189999999999996</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0.313467</v>
+        <v>0.675149</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>3149888.9516870002</v>
+        <v>3198416.618088</v>
       </c>
       <c r="E77" s="22">
-        <v>9.3399999999999993E-3</v>
+        <v>8.5299999999999994E-3</v>
       </c>
       <c r="F77" s="22">
-        <v>2.1017000000000001E-2</v>
+        <v>3.6486999999999999E-2</v>
       </c>
       <c r="G77" s="22">
-        <v>0.93907200000000002</v>
+        <v>0.84384499999999996</v>
       </c>
       <c r="H77" s="9">
-        <v>0.33287699999999998</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0.13658000000000001</v>
+        <v>0.69083799999999995</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3341,689 +3642,689 @@
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>3152933.2079179999</v>
+        <v>3198808.860624</v>
       </c>
       <c r="E78" s="22">
-        <v>2.036E-2</v>
+        <v>1.0919999999999999E-2</v>
       </c>
       <c r="F78" s="22">
-        <v>2.2003999999999999E-2</v>
+        <v>3.6615000000000002E-2</v>
       </c>
       <c r="G78" s="22">
-        <v>0.91638200000000003</v>
+        <v>0.84506999999999999</v>
       </c>
       <c r="H78" s="9">
-        <v>0.43564700000000001</v>
-      </c>
-      <c r="I78" s="9">
-        <v>0.18845000000000001</v>
+        <v>0.69104699999999997</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>3153963.597693</v>
+        <v>3201735.4331479999</v>
       </c>
       <c r="E79" s="22">
-        <v>1.1939999999999999E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="F79" s="22">
-        <v>2.2338E-2</v>
+        <v>3.7562999999999999E-2</v>
       </c>
       <c r="G79" s="22">
-        <v>0.88936599999999999</v>
+        <v>0.79189600000000004</v>
       </c>
       <c r="H79" s="9">
-        <v>0.53302000000000005</v>
-      </c>
-      <c r="I79" s="9">
-        <v>0.266847</v>
+        <v>0.76003500000000002</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>3157424.414595</v>
+        <v>3203023.6420740001</v>
       </c>
       <c r="E80" s="22">
-        <v>6.96E-3</v>
+        <v>1.3350000000000001E-2</v>
       </c>
       <c r="F80" s="22">
-        <v>2.3460000000000002E-2</v>
+        <v>3.798E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.861456</v>
+        <v>0.82666799999999996</v>
       </c>
       <c r="H80" s="9">
-        <v>0.56990499999999999</v>
-      </c>
-      <c r="I80" s="9">
-        <v>0.35458499999999998</v>
+        <v>0.75564299999999995</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>3159100.6323569999</v>
+        <v>3203698.2941220002</v>
       </c>
       <c r="E81" s="22">
-        <v>1.349E-2</v>
+        <v>7.3099999999999997E-3</v>
       </c>
       <c r="F81" s="22">
-        <v>2.4003E-2</v>
+        <v>3.8198999999999997E-2</v>
       </c>
       <c r="G81" s="22">
-        <v>0.81636500000000001</v>
+        <v>0.73685500000000004</v>
       </c>
       <c r="H81" s="9">
-        <v>0.65201600000000004</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0.455461</v>
+        <v>0.94896000000000003</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>3159651.358002</v>
+        <v>3205794.9128950001</v>
       </c>
       <c r="E82" s="22">
-        <v>8.1899999999999994E-3</v>
+        <v>9.1400000000000006E-3</v>
       </c>
       <c r="F82" s="22">
-        <v>2.4181999999999999E-2</v>
+        <v>3.8878999999999997E-2</v>
       </c>
       <c r="G82" s="22">
-        <v>0.83023100000000005</v>
+        <v>0.81922700000000004</v>
       </c>
       <c r="H82" s="9">
-        <v>0.72150099999999995</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0.463974</v>
+        <v>0.78339400000000003</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="23">
-        <v>3168477.3561320002</v>
+        <v>3211042.9374640002</v>
       </c>
       <c r="E83" s="22">
-        <v>1.2800000000000001E-2</v>
+        <v>2.315E-2</v>
       </c>
       <c r="F83" s="22">
-        <v>2.7042E-2</v>
+        <v>4.0578999999999997E-2</v>
       </c>
       <c r="G83" s="22">
-        <v>0.87856000000000001</v>
+        <v>0.80929899999999999</v>
       </c>
       <c r="H83" s="9">
-        <v>0.58705799999999997</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0.28897499999999998</v>
+        <v>0.72377800000000003</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>3169588.2939200001</v>
+        <v>3212167.535319</v>
       </c>
       <c r="E84" s="22">
-        <v>1.0290000000000001E-2</v>
+        <v>7.9600000000000001E-3</v>
       </c>
       <c r="F84" s="22">
-        <v>2.7403E-2</v>
+        <v>4.0944000000000001E-2</v>
       </c>
       <c r="G84" s="22">
-        <v>0.76261299999999999</v>
+        <v>0.80035100000000003</v>
       </c>
       <c r="H84" s="9">
-        <v>0.84352899999999997</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0.68059099999999995</v>
+        <v>0.76667099999999999</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>3169991.963639</v>
+        <v>3226383.7018929999</v>
       </c>
       <c r="E85" s="22">
-        <v>8.7899999999999992E-3</v>
+        <v>1.0630000000000001E-2</v>
       </c>
       <c r="F85" s="22">
-        <v>2.7532999999999998E-2</v>
+        <v>4.5551000000000001E-2</v>
       </c>
       <c r="G85" s="22">
-        <v>0.926597</v>
+        <v>0.77054500000000004</v>
       </c>
       <c r="H85" s="9">
-        <v>0.36072900000000002</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0.17091100000000001</v>
+        <v>0.817577</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>3175056.3711450002</v>
+        <v>3232175.793904</v>
       </c>
       <c r="E86" s="22">
-        <v>2.036E-2</v>
+        <v>8.3599999999999994E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>2.9175E-2</v>
+        <v>4.7427999999999998E-2</v>
       </c>
       <c r="G86" s="22">
-        <v>0.83892299999999997</v>
+        <v>0.74796200000000002</v>
       </c>
       <c r="H86" s="9">
-        <v>0.68941699999999995</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0.41961700000000002</v>
+        <v>0.90926499999999999</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="23">
-        <v>3175202.6632309998</v>
+        <v>3240411.0406999998</v>
       </c>
       <c r="E87" s="22">
-        <v>1.172E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>2.9222000000000001E-2</v>
+        <v>5.0096000000000002E-2</v>
       </c>
       <c r="G87" s="22">
-        <v>0.82550599999999996</v>
+        <v>0.83693799999999996</v>
       </c>
       <c r="H87" s="9">
-        <v>0.70276000000000005</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0.454764</v>
+        <v>0.73212500000000003</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>3178398.515135</v>
+        <v>3243175.1718020001</v>
       </c>
       <c r="E88" s="22">
-        <v>1.1350000000000001E-2</v>
+        <v>9.0699999999999999E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>3.0258E-2</v>
+        <v>5.0992000000000003E-2</v>
       </c>
       <c r="G88" s="22">
-        <v>0.88353999999999999</v>
+        <v>0.86046999999999996</v>
       </c>
       <c r="H88" s="9">
-        <v>0.51656400000000002</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0.27637499999999998</v>
+        <v>0.65945299999999996</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="23">
-        <v>3188661.4198870002</v>
+        <v>3246579.4791890001</v>
       </c>
       <c r="E89" s="22">
-        <v>8.2799999999999992E-3</v>
+        <v>7.7099999999999998E-3</v>
       </c>
       <c r="F89" s="22">
-        <v>3.3584999999999997E-2</v>
+        <v>5.2095000000000002E-2</v>
       </c>
       <c r="G89" s="22">
-        <v>0.87763199999999997</v>
+        <v>0.79874000000000001</v>
       </c>
       <c r="H89" s="9">
-        <v>0.60852700000000004</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0.28978399999999999</v>
+        <v>0.76324199999999998</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>3191766.475848</v>
+        <v>3263093.8059029998</v>
       </c>
       <c r="E90" s="22">
-        <v>5.7200000000000003E-3</v>
+        <v>6.4900000000000001E-3</v>
       </c>
       <c r="F90" s="22">
-        <v>3.4591999999999998E-2</v>
+        <v>5.7446999999999998E-2</v>
       </c>
       <c r="G90" s="22">
-        <v>0.85806099999999996</v>
+        <v>0.841808</v>
       </c>
       <c r="H90" s="9">
-        <v>0.62809599999999999</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0.35731600000000002</v>
+        <v>0.61762799999999995</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>3192799.345001</v>
+        <v>3269372.9951909999</v>
       </c>
       <c r="E91" s="22">
-        <v>1.2489999999999999E-2</v>
+        <v>7.4099999999999999E-3</v>
       </c>
       <c r="F91" s="22">
-        <v>3.4925999999999999E-2</v>
+        <v>5.9482E-2</v>
       </c>
       <c r="G91" s="22">
-        <v>0.90321799999999997</v>
+        <v>0.80687299999999995</v>
       </c>
       <c r="H91" s="9">
-        <v>0.51578299999999999</v>
-      </c>
-      <c r="I91" s="9">
-        <v>0.22484499999999999</v>
+        <v>0.72102100000000002</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>3193270.757863</v>
+        <v>3269712.639157</v>
       </c>
       <c r="E92" s="22">
-        <v>1.5169999999999999E-2</v>
+        <v>1.3089999999999999E-2</v>
       </c>
       <c r="F92" s="22">
-        <v>3.5078999999999999E-2</v>
+        <v>5.9591999999999999E-2</v>
       </c>
       <c r="G92" s="22">
-        <v>0.86712400000000001</v>
+        <v>0.781555</v>
       </c>
       <c r="H92" s="9">
-        <v>0.57748299999999997</v>
-      </c>
-      <c r="I92" s="9">
-        <v>0.322548</v>
+        <v>0.798593</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="23">
-        <v>3194302.8380229999</v>
+        <v>3271336.3485810002</v>
       </c>
       <c r="E93" s="22">
-        <v>2.0709999999999999E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="F93" s="22">
-        <v>3.5414000000000001E-2</v>
+        <v>6.0117999999999998E-2</v>
       </c>
       <c r="G93" s="22">
-        <v>0.83109900000000003</v>
+        <v>0.74668199999999996</v>
       </c>
       <c r="H93" s="9">
-        <v>0.73428099999999996</v>
-      </c>
-      <c r="I93" s="9">
-        <v>0.43461</v>
+        <v>0.91819899999999999</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" s="23">
-        <v>3194368.2294160002</v>
+        <v>3282350.8149230001</v>
       </c>
       <c r="E94" s="22">
-        <v>1.4200000000000001E-2</v>
+        <v>8.0300000000000007E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>3.5435000000000001E-2</v>
+        <v>6.3686999999999994E-2</v>
       </c>
       <c r="G94" s="22">
-        <v>0.85528199999999999</v>
+        <v>0.83964899999999998</v>
       </c>
       <c r="H94" s="9">
-        <v>0.64969200000000005</v>
-      </c>
-      <c r="I94" s="9">
-        <v>0.36108499999999999</v>
+        <v>0.550817</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="23">
-        <v>3199756.1517110001</v>
+        <v>3287488.114695</v>
       </c>
       <c r="E95" s="22">
-        <v>1.137E-2</v>
+        <v>8.09E-3</v>
       </c>
       <c r="F95" s="22">
-        <v>3.7180999999999999E-2</v>
+        <v>6.5351999999999993E-2</v>
       </c>
       <c r="G95" s="22">
-        <v>0.81435400000000002</v>
+        <v>0.79120599999999996</v>
       </c>
       <c r="H95" s="9">
-        <v>0.755274</v>
-      </c>
-      <c r="I95" s="9">
-        <v>0.48657499999999998</v>
+        <v>0.76961000000000002</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="23">
-        <v>3202398.0378510002</v>
+        <v>3290204.8850360001</v>
       </c>
       <c r="E96" s="22">
-        <v>1.8360000000000001E-2</v>
+        <v>1.0869999999999999E-2</v>
       </c>
       <c r="F96" s="22">
-        <v>3.8038000000000002E-2</v>
+        <v>6.6233E-2</v>
       </c>
       <c r="G96" s="22">
-        <v>0.78775099999999998</v>
+        <v>0.696909</v>
       </c>
       <c r="H96" s="9">
-        <v>0.81492900000000001</v>
-      </c>
-      <c r="I96" s="9">
-        <v>0.57082299999999997</v>
+        <v>0.99113399999999996</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" s="23">
-        <v>3203507.2110910001</v>
+        <v>3325990.901207</v>
       </c>
       <c r="E97" s="22">
-        <v>1.225E-2</v>
+        <v>1.0840000000000001E-2</v>
       </c>
       <c r="F97" s="22">
-        <v>3.8397000000000001E-2</v>
+        <v>7.7829999999999996E-2</v>
       </c>
       <c r="G97" s="22">
-        <v>0.86049500000000001</v>
+        <v>0.69874199999999997</v>
       </c>
       <c r="H97" s="9">
-        <v>0.65419899999999997</v>
-      </c>
-      <c r="I97" s="9">
-        <v>0.339698</v>
+        <v>0.962897</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" s="23">
-        <v>3203508.7863469999</v>
+        <v>3328020.289841</v>
       </c>
       <c r="E98" s="22">
-        <v>1.017E-2</v>
+        <v>1.0160000000000001E-2</v>
       </c>
       <c r="F98" s="22">
-        <v>3.8398000000000002E-2</v>
+        <v>7.8487000000000001E-2</v>
       </c>
       <c r="G98" s="22">
-        <v>0.82543100000000003</v>
+        <v>0.73357799999999995</v>
       </c>
       <c r="H98" s="9">
-        <v>0.74414199999999997</v>
-      </c>
-      <c r="I98" s="9">
-        <v>0.45365699999999998</v>
+        <v>0.95379700000000001</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="23">
-        <v>3205286.0979490001</v>
+        <v>3410888.9013510002</v>
       </c>
       <c r="E99" s="22">
-        <v>9.9699999999999997E-3</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="F99" s="22">
-        <v>3.8974000000000002E-2</v>
+        <v>0.10534200000000001</v>
       </c>
       <c r="G99" s="22">
-        <v>0.84723899999999996</v>
+        <v>0.67326900000000001</v>
       </c>
       <c r="H99" s="9">
-        <v>0.60082199999999997</v>
-      </c>
-      <c r="I99" s="9">
-        <v>0.37117299999999998</v>
+        <v>1.026294</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" s="23">
-        <v>3209779.0985500002</v>
+        <v>3509599.9583450002</v>
       </c>
       <c r="E100" s="22">
-        <v>1.4030000000000001E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F100" s="22">
-        <v>4.0430000000000001E-2</v>
+        <v>0.13733000000000001</v>
       </c>
       <c r="G100" s="22">
-        <v>0.78371800000000003</v>
+        <v>0.67491599999999996</v>
       </c>
       <c r="H100" s="9">
-        <v>0.82859499999999997</v>
-      </c>
-      <c r="I100" s="9">
-        <v>0.59343699999999999</v>
+        <v>1.021509</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
       </c>
       <c r="D101" s="23">
-        <v>3223308.4895720002</v>
+        <v>3533918.9653030001</v>
       </c>
       <c r="E101" s="22">
-        <v>1.204E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="F101" s="22">
-        <v>4.4816000000000002E-2</v>
+        <v>0.14521100000000001</v>
       </c>
       <c r="G101" s="22">
-        <v>0.83219100000000001</v>
+        <v>0.70431100000000002</v>
       </c>
       <c r="H101" s="9">
-        <v>0.75788</v>
-      </c>
-      <c r="I101" s="9">
-        <v>0.43215900000000002</v>
+        <v>0.98000799999999999</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/maps/NC/NC20C_candidates.xlsx
+++ b/maps/NC/NC20C_candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A98DDD-F4A7-BB45-9C0D-FF43018D80F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4619B774-4A94-094E-ABCF-00EF7A68FB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -771,7 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,15 +809,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -831,14 +828,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,15 +1175,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="22"/>
+    <col min="2" max="2" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="10">
+      <c r="B1" s="17"/>
+      <c r="C1" s="7">
         <v>100</v>
       </c>
       <c r="D1" t="s">
@@ -1186,188 +1191,188 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <f>MIN(DATA!E$2:E$101)</f>
         <v>4.28E-3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <f>MIN(DATA!F$2:F$101)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <f>MIN(DATA!G$2:G$101)</f>
         <v>0.67326900000000001</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <f>MIN(DATA!H$2:H$101)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <f>MIN(DATA!I$2:I$101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <f>MAX(DATA!E$2:E$101)</f>
         <v>2.315E-2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <f>MAX(DATA!F$2:F$101)</f>
         <v>0.14521100000000001</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <f>MAX(DATA!G$2:G$101)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <f>MAX(DATA!H$2:H$101)</f>
         <v>1.026294</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <f>MAX(DATA!I$2:I$101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <f>AVERAGE(DATA!E$2:E$101)</f>
         <v>1.0414E-2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <f>AVERAGE(DATA!F$2:F$101)</f>
         <v>2.6165110000000002E-2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <f>AVERAGE(DATA!G$2:G$101)</f>
         <v>0.84861678000000029</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <f>AVERAGE(DATA!H$2:H$101)</f>
         <v>0.61839718000000021</v>
       </c>
-      <c r="F6" s="8" t="e">
+      <c r="F6" s="5" t="e">
         <f>AVERAGE(DATA!I$2:I$101)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="18">
         <f>MEDIAN(DATA!E$2:E$101)</f>
         <v>9.5449999999999997E-3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <f>MEDIAN(DATA!F$2:F$101)</f>
         <v>1.45895E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <f>MEDIAN(DATA!G$2:G$101)</f>
         <v>0.86038899999999996</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <f>MEDIAN(DATA!H$2:H$101)</f>
         <v>0.61143999999999998</v>
       </c>
-      <c r="F7" s="8" t="e">
+      <c r="F7" s="5" t="e">
         <f>MEDIAN(DATA!I$2:I$101)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="22">
         <f>STDEV(DATA!E$2:E$101)</f>
         <v>3.9025019169913618E-3</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <f>STDEV(DATA!F$2:F$101)</f>
         <v>2.6525631348990081E-2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <f>STDEV(DATA!G$2:G$101)</f>
         <v>6.7940862745015027E-2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <f>STDEV(DATA!H$2:H$101)</f>
         <v>0.19393844047523667</v>
       </c>
-      <c r="F8" s="13" t="e">
+      <c r="F8" s="10" t="e">
         <f>STDEV(DATA!I$2:I$101)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D10" s="10"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="28"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="23"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="28"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="23"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="14"/>
       <c r="G12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="28"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="23"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="28"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="23"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="28"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="23"/>
+      <c r="F15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1382,7 +1387,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,12 +1395,12 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1408,16 +1413,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1428,31 +1433,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="24">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="C2" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
         <v>3085822.6804189999</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="27">
         <v>1.196E-2</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="27">
         <v>0</v>
       </c>
-      <c r="G2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G2" s="27">
+        <v>1</v>
+      </c>
+      <c r="H2" s="28">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1466,19 +1471,19 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <v>3091360.325129</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <v>1.099E-2</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="18">
         <v>1.7949999999999999E-3</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="18">
         <v>0.95836299999999996</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>0.26617299999999999</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1495,19 +1500,19 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="19">
         <v>3093686.026298</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>1.5640000000000001E-2</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="18">
         <v>2.5479999999999999E-3</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>0.96063699999999996</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>0.256967</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1524,19 +1529,19 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>3095700.5388790001</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>1.064E-2</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="18">
         <v>3.2009999999999999E-3</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="18">
         <v>0.96788099999999999</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>0.20786399999999999</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1553,19 +1558,19 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="19">
         <v>3095984.8703279998</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>1.0919999999999999E-2</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>3.2929999999999999E-3</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="18">
         <v>0.89176699999999998</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>0.51963199999999998</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1573,31 +1578,31 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="29">
         <v>88</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="C7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
         <v>3101225.745536</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="32">
         <v>8.2400000000000008E-3</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="32">
         <v>4.9919999999999999E-3</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="32">
         <v>0.90017499999999995</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="33">
         <v>0.48464800000000002</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1611,19 +1616,19 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="19">
         <v>3102369.785621</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>1.8069999999999999E-2</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>5.3619999999999996E-3</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="18">
         <v>0.900837</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>0.49046499999999998</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1640,19 +1645,19 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="19">
         <v>3102675.4609770002</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <v>7.2399999999999999E-3</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>5.4609999999999997E-3</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="18">
         <v>0.90276199999999995</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>0.457901</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1669,19 +1674,19 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="19">
         <v>3102733.4235609998</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <v>9.5399999999999999E-3</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="18">
         <v>5.4799999999999996E-3</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="18">
         <v>0.89976999999999996</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>0.46788999999999997</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1698,19 +1703,19 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="19">
         <v>3102762.7195049999</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>1.5559999999999999E-2</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>5.4900000000000001E-3</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>0.87258999999999998</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>0.45949600000000002</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1727,19 +1732,19 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="19">
         <v>3103099.5981839998</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="18">
         <v>9.0799999999999995E-3</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>5.5989999999999998E-3</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="18">
         <v>0.920875</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>0.39340399999999998</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1756,19 +1761,19 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="19">
         <v>3103904.5111380001</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>4.81E-3</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="18">
         <v>5.8599999999999998E-3</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="18">
         <v>0.91587200000000002</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>0.42176599999999997</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1785,19 +1790,19 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="19">
         <v>3104266.6392979999</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>9.8899999999999995E-3</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="18">
         <v>5.9769999999999997E-3</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="18">
         <v>0.93118699999999999</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>0.37853100000000001</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1814,19 +1819,19 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="19">
         <v>3104330.6153500001</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>4.9800000000000001E-3</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="18">
         <v>5.9979999999999999E-3</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="18">
         <v>0.899752</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>0.431757</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1843,19 +1848,19 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>3104864.5906719998</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <v>1.5169999999999999E-2</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="18">
         <v>6.1710000000000003E-3</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="18">
         <v>0.87621800000000005</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>0.575569</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1872,19 +1877,19 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="19">
         <v>3104982.3850759999</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <v>9.2700000000000005E-3</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="18">
         <v>6.2090000000000001E-3</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="18">
         <v>0.920852</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>0.416217</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1901,19 +1906,19 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="19">
         <v>3105478.6661749999</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <v>8.4200000000000004E-3</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="18">
         <v>6.3699999999999998E-3</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="18">
         <v>0.88021899999999997</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>0.55794100000000002</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1930,19 +1935,19 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="19">
         <v>3105979.3146549999</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <v>1.4420000000000001E-2</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="18">
         <v>6.5319999999999996E-3</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="18">
         <v>0.90874699999999997</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <v>0.46515299999999998</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1959,19 +1964,19 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="19">
         <v>3106050.0496470002</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="18">
         <v>6.4900000000000001E-3</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="18">
         <v>6.5550000000000001E-3</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="18">
         <v>0.90771400000000002</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <v>0.45059700000000003</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1988,19 +1993,19 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="19">
         <v>3106241.559876</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="18">
         <v>8.7100000000000007E-3</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="18">
         <v>6.6169999999999996E-3</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="18">
         <v>0.92228399999999999</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="6">
         <v>0.41516399999999998</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2017,19 +2022,19 @@
       <c r="C22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="19">
         <v>3106367.611184</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="18">
         <v>1.12E-2</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>6.6579999999999999E-3</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="18">
         <v>0.94316</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <v>0.34172999999999998</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2046,19 +2051,19 @@
       <c r="C23" t="b">
         <v>1</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <v>3106760.6441370002</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="18">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="18">
         <v>6.7850000000000002E-3</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="18">
         <v>0.91947800000000002</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>0.43637199999999998</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2075,19 +2080,19 @@
       <c r="C24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="19">
         <v>3108185.7553719999</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="18">
         <v>5.3600000000000002E-3</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="18">
         <v>7.247E-3</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="18">
         <v>0.885154</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <v>0.53073599999999999</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2104,19 +2109,19 @@
       <c r="C25" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="19">
         <v>3109297.3187330002</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="18">
         <v>1.3780000000000001E-2</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="18">
         <v>7.607E-3</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="18">
         <v>0.89914700000000003</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="6">
         <v>0.50686200000000003</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2133,19 +2138,19 @@
       <c r="C26" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="19">
         <v>3109351.5265100002</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="18">
         <v>9.4900000000000002E-3</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="18">
         <v>7.6249999999999998E-3</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="18">
         <v>0.87487800000000004</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <v>0.43488300000000002</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -2162,19 +2167,19 @@
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="19">
         <v>3109454.707134</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="18">
         <v>1.2109999999999999E-2</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="18">
         <v>7.6579999999999999E-3</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="18">
         <v>0.88843700000000003</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="6">
         <v>0.54328900000000002</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2191,19 +2196,19 @@
       <c r="C28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="19">
         <v>3110268.8170960001</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="18">
         <v>4.28E-3</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="18">
         <v>7.9220000000000002E-3</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="18">
         <v>0.86858199999999997</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="6">
         <v>0.54747100000000004</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2220,19 +2225,19 @@
       <c r="C29" t="b">
         <v>1</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <v>3110560.4812059999</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="18">
         <v>5.5100000000000001E-3</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="18">
         <v>8.0169999999999998E-3</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="18">
         <v>0.92610700000000001</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="6">
         <v>0.41856500000000002</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2249,19 +2254,19 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="19">
         <v>3110781.336104</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="18">
         <v>1.438E-2</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="18">
         <v>8.0879999999999997E-3</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="18">
         <v>0.90066500000000005</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="6">
         <v>0.49917899999999998</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -2278,19 +2283,19 @@
       <c r="C31" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="19">
         <v>3111191.3877949999</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="18">
         <v>1.1129999999999999E-2</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="18">
         <v>8.2209999999999991E-3</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="18">
         <v>0.89513399999999999</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="6">
         <v>0.52785599999999999</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -2307,19 +2312,19 @@
       <c r="C32" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="19">
         <v>3111835.0820889999</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="18">
         <v>1.2160000000000001E-2</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="18">
         <v>8.43E-3</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="18">
         <v>0.93995499999999998</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="6">
         <v>0.345744</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -2336,19 +2341,19 @@
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="19">
         <v>3113619.6789540001</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="18">
         <v>7.1900000000000002E-3</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="18">
         <v>9.0080000000000004E-3</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="18">
         <v>0.91931499999999999</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="6">
         <v>0.41309099999999999</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -2365,19 +2370,19 @@
       <c r="C34" t="b">
         <v>1</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="19">
         <v>3113663.5322619998</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="18">
         <v>7.2899999999999996E-3</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="18">
         <v>9.0220000000000005E-3</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="18">
         <v>0.88041700000000001</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="6">
         <v>0.51731700000000003</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -2394,19 +2399,19 @@
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="19">
         <v>3114372.6521899998</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="18">
         <v>2.231E-2</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="18">
         <v>9.2519999999999998E-3</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="18">
         <v>0.88595500000000005</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="6">
         <v>0.49825399999999997</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -2423,19 +2428,19 @@
       <c r="C36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="19">
         <v>3115498.3082099999</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="18">
         <v>7.1300000000000001E-3</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="18">
         <v>9.6170000000000005E-3</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="18">
         <v>0.89215500000000003</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="6">
         <v>0.48744999999999999</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2452,19 +2457,19 @@
       <c r="C37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="19">
         <v>3115600.2503840001</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="18">
         <v>6.6E-3</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="18">
         <v>9.6500000000000006E-3</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="18">
         <v>0.81180600000000003</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="6">
         <v>0.75460300000000002</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -2481,19 +2486,19 @@
       <c r="C38" t="b">
         <v>1</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="19">
         <v>3116223.4893990001</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="18">
         <v>1.508E-2</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="18">
         <v>9.8519999999999996E-3</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="18">
         <v>0.88066999999999995</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="6">
         <v>0.54672799999999999</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -2510,19 +2515,19 @@
       <c r="C39" t="b">
         <v>1</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="19">
         <v>3116481.1979760001</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="18">
         <v>2.102E-2</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="18">
         <v>9.9349999999999994E-3</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="18">
         <v>0.884293</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="6">
         <v>0.52774600000000005</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -2539,19 +2544,19 @@
       <c r="C40" t="b">
         <v>1</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="19">
         <v>3116614.768991</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="18">
         <v>8.4799999999999997E-3</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="18">
         <v>9.979E-3</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="18">
         <v>0.901667</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="6">
         <v>0.48923100000000003</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -2568,19 +2573,19 @@
       <c r="C41" t="b">
         <v>1</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="19">
         <v>3117550.2174269999</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="18">
         <v>1.2409999999999999E-2</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="18">
         <v>1.0281999999999999E-2</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="18">
         <v>0.87373800000000001</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="6">
         <v>0.61652600000000002</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -2597,19 +2602,19 @@
       <c r="C42" t="b">
         <v>1</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="19">
         <v>3119759.0633020001</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="18">
         <v>9.4800000000000006E-3</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="18">
         <v>1.0998000000000001E-2</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="18">
         <v>0.86836500000000005</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="6">
         <v>0.50367200000000001</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -2626,19 +2631,19 @@
       <c r="C43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="19">
         <v>3119980.305617</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="18">
         <v>1.0279999999999999E-2</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="18">
         <v>1.1069000000000001E-2</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="18">
         <v>0.83549300000000004</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="6">
         <v>0.62297100000000005</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -2655,19 +2660,19 @@
       <c r="C44" t="b">
         <v>1</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="19">
         <v>3120976.4509049999</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="18">
         <v>9.5499999999999995E-3</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="18">
         <v>1.1391999999999999E-2</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="18">
         <v>0.82521100000000003</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="6">
         <v>0.70042700000000002</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -2684,19 +2689,19 @@
       <c r="C45" t="b">
         <v>1</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="19">
         <v>3121149.8624880002</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="18">
         <v>9.7099999999999999E-3</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="18">
         <v>1.1448E-2</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="18">
         <v>0.85220799999999997</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="6">
         <v>0.641459</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -2713,19 +2718,19 @@
       <c r="C46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="19">
         <v>3121314.990795</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="18">
         <v>8.26E-3</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="18">
         <v>1.1502E-2</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="18">
         <v>0.91736499999999999</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="6">
         <v>0.437915</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -2742,19 +2747,19 @@
       <c r="C47" t="b">
         <v>1</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="19">
         <v>3122502.6141989999</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="18">
         <v>5.94E-3</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="18">
         <v>1.1887E-2</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="18">
         <v>0.874282</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="6">
         <v>0.54512000000000005</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -2771,19 +2776,19 @@
       <c r="C48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="19">
         <v>3123096.7723380001</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="18">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="18">
         <v>1.2078999999999999E-2</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="18">
         <v>0.928674</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="6">
         <v>0.38674700000000001</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -2800,19 +2805,19 @@
       <c r="C49" t="b">
         <v>1</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="19">
         <v>3123132.7988149999</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="18">
         <v>1.044E-2</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="18">
         <v>1.2090999999999999E-2</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="18">
         <v>0.85915699999999995</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="6">
         <v>0.53007300000000002</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -2829,19 +2834,19 @@
       <c r="C50" t="b">
         <v>1</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="19">
         <v>3124036.5005890001</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="18">
         <v>5.5300000000000002E-3</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="18">
         <v>1.2383999999999999E-2</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="18">
         <v>0.81111800000000001</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="6">
         <v>0.77740699999999996</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -2858,19 +2863,19 @@
       <c r="C51" t="b">
         <v>1</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="19">
         <v>3129185.903556</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="18">
         <v>1.9810000000000001E-2</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="18">
         <v>1.4052E-2</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="18">
         <v>0.88987700000000003</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="6">
         <v>0.53977399999999998</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -2887,19 +2892,19 @@
       <c r="C52" t="b">
         <v>1</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="19">
         <v>3132501.5302690002</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="18">
         <v>1.8610000000000002E-2</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="18">
         <v>1.5127E-2</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="18">
         <v>0.78423600000000004</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="6">
         <v>0.80527400000000005</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -2916,19 +2921,19 @@
       <c r="C53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="19">
         <v>3133594.8647579998</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="18">
         <v>7.28E-3</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="18">
         <v>1.5481E-2</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="18">
         <v>0.86030799999999996</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="6">
         <v>0.56201599999999996</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -2945,19 +2950,19 @@
       <c r="C54" t="b">
         <v>1</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="19">
         <v>3137323.4127639998</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="18">
         <v>7.0400000000000003E-3</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="18">
         <v>1.6688999999999999E-2</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="18">
         <v>0.79468799999999995</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="6">
         <v>0.74771200000000004</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -2974,19 +2979,19 @@
       <c r="C55" t="b">
         <v>1</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="19">
         <v>3143329.714596</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="18">
         <v>1.8890000000000001E-2</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="18">
         <v>1.8636E-2</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="18">
         <v>0.79457500000000003</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="6">
         <v>0.75805500000000003</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -3003,19 +3008,19 @@
       <c r="C56" t="b">
         <v>1</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="19">
         <v>3147196.9453380001</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="18">
         <v>7.0699999999999999E-3</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="18">
         <v>1.9889E-2</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="18">
         <v>0.75669799999999998</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="6">
         <v>0.88665899999999997</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -3032,19 +3037,19 @@
       <c r="C57" t="b">
         <v>1</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="19">
         <v>3147861.7394440002</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="18">
         <v>9.4500000000000001E-3</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="18">
         <v>2.0105000000000001E-2</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G57" s="18">
         <v>0.79089299999999996</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="6">
         <v>0.76468599999999998</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -3061,19 +3066,19 @@
       <c r="C58" t="b">
         <v>1</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="19">
         <v>3150009.526234</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="18">
         <v>9.3699999999999999E-3</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="18">
         <v>2.0801E-2</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="18">
         <v>0.84517600000000004</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="6">
         <v>0.61369200000000002</v>
       </c>
       <c r="I58" s="1" t="s">
@@ -3090,19 +3095,19 @@
       <c r="C59" t="b">
         <v>1</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="19">
         <v>3155154.2191479998</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="18">
         <v>1.227E-2</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="18">
         <v>2.2467999999999998E-2</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="18">
         <v>0.78272200000000003</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="6">
         <v>0.79234099999999996</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -3119,19 +3124,19 @@
       <c r="C60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="19">
         <v>3159272.5690799998</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="18">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="18">
         <v>2.3802E-2</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="18">
         <v>0.91632999999999998</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="6">
         <v>0.46770200000000001</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -3148,19 +3153,19 @@
       <c r="C61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="19">
         <v>3171410.0338019999</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="18">
         <v>8.4600000000000005E-3</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="18">
         <v>2.7736E-2</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G61" s="18">
         <v>0.85471200000000003</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="6">
         <v>0.65093500000000004</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -3177,19 +3182,19 @@
       <c r="C62" t="b">
         <v>1</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="19">
         <v>3176022.864304</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="18">
         <v>1.37E-2</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="18">
         <v>2.9231E-2</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="18">
         <v>0.86732600000000004</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="6">
         <v>0.60350700000000002</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -3206,19 +3211,19 @@
       <c r="C63" t="b">
         <v>1</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="19">
         <v>3178044.675975</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="18">
         <v>7.6299999999999996E-3</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="18">
         <v>2.9885999999999999E-2</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G63" s="18">
         <v>0.74470700000000001</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="6">
         <v>0.85495600000000005</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -3235,19 +3240,19 @@
       <c r="C64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="19">
         <v>3179417.8825770002</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="18">
         <v>1.2630000000000001E-2</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="18">
         <v>3.0331E-2</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="18">
         <v>0.83724900000000002</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="6">
         <v>0.70777100000000004</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -3264,19 +3269,19 @@
       <c r="C65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="19">
         <v>3181788.1884349999</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="18">
         <v>1.1050000000000001E-2</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="18">
         <v>3.1099000000000002E-2</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G65" s="18">
         <v>0.84730499999999997</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="6">
         <v>0.66597600000000001</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -3293,19 +3298,19 @@
       <c r="C66" t="b">
         <v>1</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="19">
         <v>3183084.592799</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="18">
         <v>9.3699999999999999E-3</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="18">
         <v>3.1518999999999998E-2</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="18">
         <v>0.79540500000000003</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="6">
         <v>0.82197200000000004</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -3322,19 +3327,19 @@
       <c r="C67" t="b">
         <v>1</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="19">
         <v>3183782.5783719998</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="18">
         <v>1.0710000000000001E-2</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="18">
         <v>3.1745000000000002E-2</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="18">
         <v>0.86064300000000005</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="6">
         <v>0.62892000000000003</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -3351,19 +3356,19 @@
       <c r="C68" t="b">
         <v>1</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="19">
         <v>3190114.7563299998</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="18">
         <v>1.0410000000000001E-2</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="18">
         <v>3.3797000000000001E-2</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="18">
         <v>0.80648799999999998</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="6">
         <v>0.75667099999999998</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -3380,19 +3385,19 @@
       <c r="C69" t="b">
         <v>1</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="19">
         <v>3190383.6025979999</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="18">
         <v>7.2300000000000003E-3</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="18">
         <v>3.3883999999999997E-2</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="18">
         <v>0.82070500000000002</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="6">
         <v>0.68050600000000006</v>
       </c>
       <c r="I69" s="1" t="s">
@@ -3409,19 +3414,19 @@
       <c r="C70" t="b">
         <v>1</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="19">
         <v>3190700.915143</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="18">
         <v>9.5399999999999999E-3</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="18">
         <v>3.3987000000000003E-2</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="18">
         <v>0.87003200000000003</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="6">
         <v>0.60918799999999995</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -3438,19 +3443,19 @@
       <c r="C71" t="b">
         <v>1</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="19">
         <v>3191051.1854909998</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="18">
         <v>1.184E-2</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="18">
         <v>3.4100999999999999E-2</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="18">
         <v>0.84206499999999995</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="6">
         <v>0.68879000000000001</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -3467,19 +3472,19 @@
       <c r="C72" t="b">
         <v>1</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="19">
         <v>3191227.470367</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="18">
         <v>6.5199999999999998E-3</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="18">
         <v>3.4158000000000001E-2</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="18">
         <v>0.80108400000000002</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="6">
         <v>0.671983</v>
       </c>
       <c r="I72" s="1" t="s">
@@ -3496,19 +3501,19 @@
       <c r="C73" t="b">
         <v>1</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="19">
         <v>3192568.234259</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="18">
         <v>9.7199999999999995E-3</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="18">
         <v>3.4591999999999998E-2</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="18">
         <v>0.88059900000000002</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="6">
         <v>0.55952500000000005</v>
       </c>
       <c r="I73" s="1" t="s">
@@ -3525,19 +3530,19 @@
       <c r="C74" t="b">
         <v>1</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="19">
         <v>3197294.334698</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="18">
         <v>1.7080000000000001E-2</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="18">
         <v>3.6124000000000003E-2</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="18">
         <v>0.76821899999999999</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="6">
         <v>0.81806900000000005</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -3554,19 +3559,19 @@
       <c r="C75" t="b">
         <v>1</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="19">
         <v>3197597.5456559998</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="18">
         <v>1.337E-2</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="18">
         <v>3.6221999999999997E-2</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="18">
         <v>0.736869</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="6">
         <v>0.94779500000000005</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -3583,19 +3588,19 @@
       <c r="C76" t="b">
         <v>1</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="19">
         <v>3197885.583571</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="18">
         <v>9.9100000000000004E-3</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="18">
         <v>3.6315E-2</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="18">
         <v>0.85431500000000005</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="6">
         <v>0.675149</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -3612,19 +3617,19 @@
       <c r="C77" t="b">
         <v>1</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="19">
         <v>3198416.618088</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E77" s="18">
         <v>8.5299999999999994E-3</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="18">
         <v>3.6486999999999999E-2</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G77" s="18">
         <v>0.84384499999999996</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="6">
         <v>0.69083799999999995</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -3641,19 +3646,19 @@
       <c r="C78" t="b">
         <v>1</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="19">
         <v>3198808.860624</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E78" s="18">
         <v>1.0919999999999999E-2</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="18">
         <v>3.6615000000000002E-2</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G78" s="18">
         <v>0.84506999999999999</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="6">
         <v>0.69104699999999997</v>
       </c>
       <c r="I78" s="1" t="s">
@@ -3670,19 +3675,19 @@
       <c r="C79" t="b">
         <v>1</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="19">
         <v>3201735.4331479999</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E79" s="18">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="18">
         <v>3.7562999999999999E-2</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="18">
         <v>0.79189600000000004</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="6">
         <v>0.76003500000000002</v>
       </c>
       <c r="I79" s="1" t="s">
@@ -3699,19 +3704,19 @@
       <c r="C80" t="b">
         <v>1</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D80" s="19">
         <v>3203023.6420740001</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="18">
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="18">
         <v>3.798E-2</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="18">
         <v>0.82666799999999996</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="6">
         <v>0.75564299999999995</v>
       </c>
       <c r="I80" s="1" t="s">
@@ -3728,19 +3733,19 @@
       <c r="C81" t="b">
         <v>1</v>
       </c>
-      <c r="D81" s="23">
+      <c r="D81" s="19">
         <v>3203698.2941220002</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E81" s="18">
         <v>7.3099999999999997E-3</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="18">
         <v>3.8198999999999997E-2</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="18">
         <v>0.73685500000000004</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="6">
         <v>0.94896000000000003</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -3757,19 +3762,19 @@
       <c r="C82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="19">
         <v>3205794.9128950001</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E82" s="18">
         <v>9.1400000000000006E-3</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="18">
         <v>3.8878999999999997E-2</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="18">
         <v>0.81922700000000004</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="6">
         <v>0.78339400000000003</v>
       </c>
       <c r="I82" s="1" t="s">
@@ -3786,19 +3791,19 @@
       <c r="C83" t="b">
         <v>1</v>
       </c>
-      <c r="D83" s="23">
+      <c r="D83" s="19">
         <v>3211042.9374640002</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="18">
         <v>2.315E-2</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="18">
         <v>4.0578999999999997E-2</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="18">
         <v>0.80929899999999999</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="6">
         <v>0.72377800000000003</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -3815,19 +3820,19 @@
       <c r="C84" t="b">
         <v>1</v>
       </c>
-      <c r="D84" s="23">
+      <c r="D84" s="19">
         <v>3212167.535319</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E84" s="18">
         <v>7.9600000000000001E-3</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="18">
         <v>4.0944000000000001E-2</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="18">
         <v>0.80035100000000003</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="6">
         <v>0.76667099999999999</v>
       </c>
       <c r="I84" s="1" t="s">
@@ -3844,19 +3849,19 @@
       <c r="C85" t="b">
         <v>1</v>
       </c>
-      <c r="D85" s="23">
+      <c r="D85" s="19">
         <v>3226383.7018929999</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E85" s="18">
         <v>1.0630000000000001E-2</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="18">
         <v>4.5551000000000001E-2</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="18">
         <v>0.77054500000000004</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="6">
         <v>0.817577</v>
       </c>
       <c r="I85" s="1" t="s">
@@ -3873,19 +3878,19 @@
       <c r="C86" t="b">
         <v>1</v>
       </c>
-      <c r="D86" s="23">
+      <c r="D86" s="19">
         <v>3232175.793904</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E86" s="18">
         <v>8.3599999999999994E-3</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F86" s="18">
         <v>4.7427999999999998E-2</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="18">
         <v>0.74796200000000002</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="6">
         <v>0.90926499999999999</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -3902,19 +3907,19 @@
       <c r="C87" t="b">
         <v>1</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="19">
         <v>3240411.0406999998</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="18">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="18">
         <v>5.0096000000000002E-2</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="18">
         <v>0.83693799999999996</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="6">
         <v>0.73212500000000003</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -3931,19 +3936,19 @@
       <c r="C88" t="b">
         <v>1</v>
       </c>
-      <c r="D88" s="23">
+      <c r="D88" s="19">
         <v>3243175.1718020001</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E88" s="18">
         <v>9.0699999999999999E-3</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="18">
         <v>5.0992000000000003E-2</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="18">
         <v>0.86046999999999996</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="6">
         <v>0.65945299999999996</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -3960,19 +3965,19 @@
       <c r="C89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="19">
         <v>3246579.4791890001</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E89" s="18">
         <v>7.7099999999999998E-3</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="18">
         <v>5.2095000000000002E-2</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="18">
         <v>0.79874000000000001</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H89" s="6">
         <v>0.76324199999999998</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -3989,19 +3994,19 @@
       <c r="C90" t="b">
         <v>1</v>
       </c>
-      <c r="D90" s="23">
+      <c r="D90" s="19">
         <v>3263093.8059029998</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E90" s="18">
         <v>6.4900000000000001E-3</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="18">
         <v>5.7446999999999998E-2</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="18">
         <v>0.841808</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="6">
         <v>0.61762799999999995</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -4018,19 +4023,19 @@
       <c r="C91" t="b">
         <v>1</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D91" s="19">
         <v>3269372.9951909999</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E91" s="18">
         <v>7.4099999999999999E-3</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="18">
         <v>5.9482E-2</v>
       </c>
-      <c r="G91" s="22">
+      <c r="G91" s="18">
         <v>0.80687299999999995</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H91" s="6">
         <v>0.72102100000000002</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -4047,19 +4052,19 @@
       <c r="C92" t="b">
         <v>1</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D92" s="19">
         <v>3269712.639157</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E92" s="18">
         <v>1.3089999999999999E-2</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="18">
         <v>5.9591999999999999E-2</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G92" s="18">
         <v>0.781555</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="6">
         <v>0.798593</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -4076,19 +4081,19 @@
       <c r="C93" t="b">
         <v>1</v>
       </c>
-      <c r="D93" s="23">
+      <c r="D93" s="19">
         <v>3271336.3485810002</v>
       </c>
-      <c r="E93" s="22">
+      <c r="E93" s="18">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="18">
         <v>6.0117999999999998E-2</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="18">
         <v>0.74668199999999996</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="6">
         <v>0.91819899999999999</v>
       </c>
       <c r="I93" s="1" t="s">
@@ -4105,19 +4110,19 @@
       <c r="C94" t="b">
         <v>1</v>
       </c>
-      <c r="D94" s="23">
+      <c r="D94" s="19">
         <v>3282350.8149230001</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="18">
         <v>8.0300000000000007E-3</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="18">
         <v>6.3686999999999994E-2</v>
       </c>
-      <c r="G94" s="22">
+      <c r="G94" s="18">
         <v>0.83964899999999998</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H94" s="6">
         <v>0.550817</v>
       </c>
       <c r="I94" s="1" t="s">
@@ -4134,19 +4139,19 @@
       <c r="C95" t="b">
         <v>1</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="19">
         <v>3287488.114695</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="18">
         <v>8.09E-3</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F95" s="18">
         <v>6.5351999999999993E-2</v>
       </c>
-      <c r="G95" s="22">
+      <c r="G95" s="18">
         <v>0.79120599999999996</v>
       </c>
-      <c r="H95" s="9">
+      <c r="H95" s="6">
         <v>0.76961000000000002</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -4163,19 +4168,19 @@
       <c r="C96" t="b">
         <v>1</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="19">
         <v>3290204.8850360001</v>
       </c>
-      <c r="E96" s="22">
+      <c r="E96" s="18">
         <v>1.0869999999999999E-2</v>
       </c>
-      <c r="F96" s="22">
+      <c r="F96" s="18">
         <v>6.6233E-2</v>
       </c>
-      <c r="G96" s="22">
+      <c r="G96" s="18">
         <v>0.696909</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H96" s="6">
         <v>0.99113399999999996</v>
       </c>
       <c r="I96" s="1" t="s">
@@ -4192,19 +4197,19 @@
       <c r="C97" t="b">
         <v>1</v>
       </c>
-      <c r="D97" s="23">
+      <c r="D97" s="19">
         <v>3325990.901207</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E97" s="18">
         <v>1.0840000000000001E-2</v>
       </c>
-      <c r="F97" s="22">
+      <c r="F97" s="18">
         <v>7.7829999999999996E-2</v>
       </c>
-      <c r="G97" s="22">
+      <c r="G97" s="18">
         <v>0.69874199999999997</v>
       </c>
-      <c r="H97" s="9">
+      <c r="H97" s="6">
         <v>0.962897</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -4221,19 +4226,19 @@
       <c r="C98" t="b">
         <v>1</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="19">
         <v>3328020.289841</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="18">
         <v>1.0160000000000001E-2</v>
       </c>
-      <c r="F98" s="22">
+      <c r="F98" s="18">
         <v>7.8487000000000001E-2</v>
       </c>
-      <c r="G98" s="22">
+      <c r="G98" s="18">
         <v>0.73357799999999995</v>
       </c>
-      <c r="H98" s="9">
+      <c r="H98" s="6">
         <v>0.95379700000000001</v>
       </c>
       <c r="I98" s="1" t="s">
@@ -4250,19 +4255,19 @@
       <c r="C99" t="b">
         <v>1</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="19">
         <v>3410888.9013510002</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="18">
         <v>1.2869999999999999E-2</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="18">
         <v>0.10534200000000001</v>
       </c>
-      <c r="G99" s="22">
+      <c r="G99" s="18">
         <v>0.67326900000000001</v>
       </c>
-      <c r="H99" s="9">
+      <c r="H99" s="6">
         <v>1.026294</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -4279,19 +4284,19 @@
       <c r="C100" t="b">
         <v>1</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="19">
         <v>3509599.9583450002</v>
       </c>
-      <c r="E100" s="22">
+      <c r="E100" s="18">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="F100" s="22">
+      <c r="F100" s="18">
         <v>0.13733000000000001</v>
       </c>
-      <c r="G100" s="22">
+      <c r="G100" s="18">
         <v>0.67491599999999996</v>
       </c>
-      <c r="H100" s="9">
+      <c r="H100" s="6">
         <v>1.021509</v>
       </c>
       <c r="I100" s="1" t="s">
@@ -4308,19 +4313,19 @@
       <c r="C101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="19">
         <v>3533918.9653030001</v>
       </c>
-      <c r="E101" s="22">
+      <c r="E101" s="18">
         <v>1.502E-2</v>
       </c>
-      <c r="F101" s="22">
+      <c r="F101" s="18">
         <v>0.14521100000000001</v>
       </c>
-      <c r="G101" s="22">
+      <c r="G101" s="18">
         <v>0.70431100000000002</v>
       </c>
-      <c r="H101" s="9">
+      <c r="H101" s="6">
         <v>0.98000799999999999</v>
       </c>
       <c r="I101" s="1" t="s">

--- a/maps/NC/NC20C_candidates.xlsx
+++ b/maps/NC/NC20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4619B774-4A94-094E-ABCF-00EF7A68FB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE20E97F-BB08-9843-8D66-32BA3001B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -771,7 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -834,11 +834,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -863,11 +858,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1387,7 +1382,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1433,31 +1428,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+      <c r="A2">
         <v>23</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
         <v>3085822.6804189999</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="18">
         <v>1.196E-2</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="18">
         <v>0</v>
       </c>
-      <c r="G2" s="27">
-        <v>1</v>
-      </c>
-      <c r="H2" s="28">
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1578,31 +1573,31 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>88</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="C7" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26">
         <v>3101225.745536</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="27">
         <v>8.2400000000000008E-3</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="27">
         <v>4.9919999999999999E-3</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="27">
         <v>0.90017499999999995</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="28">
         <v>0.48464800000000002</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="25" t="s">
         <v>122</v>
       </c>
     </row>

--- a/maps/NC/NC20C_candidates.xlsx
+++ b/maps/NC/NC20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE20E97F-BB08-9843-8D66-32BA3001B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2BE888-E29B-844C-A205-41B9C76E5643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -809,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -839,6 +839,11 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,11 +863,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,7 +1387,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1428,31 +1433,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="24">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="C2" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
         <v>3085822.6804189999</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="27">
         <v>1.196E-2</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="27">
         <v>0</v>
       </c>
-      <c r="G2" s="18">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="27">
+        <v>1</v>
+      </c>
+      <c r="H2" s="28">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1573,31 +1578,31 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>88</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="C7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
         <v>3101225.745536</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="32">
         <v>8.2400000000000008E-3</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="32">
         <v>4.9919999999999999E-3</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="32">
         <v>0.90017499999999995</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="33">
         <v>0.48464800000000002</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="30" t="s">
         <v>122</v>
       </c>
     </row>
